--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_16.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50381.08108843955</v>
+        <v>48204.75884098891</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23845934.64571013</v>
+        <v>23845934.64571015</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9134618.112059636</v>
+        <v>9134618.112059632</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4906848.363340511</v>
+        <v>4876096.607817423</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>4.960063960579166</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +712,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>211.8019881041232</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>106.0626366504663</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>166.9888977590065</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +898,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -911,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>4.196966311928198</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -950,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>118.9363729084689</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1063,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>2.804525531172609</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,7 +1110,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>16.87089136023317</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1120,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>67.65538200560648</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>397.2087487807351</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>106.0626366504663</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>98.56237638534853</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,7 +1347,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1354,10 +1356,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>376.273554789842</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1427,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>28.84968802901818</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>30.11235160838089</v>
+        <v>156.2681271316377</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>403.8643073193109</v>
       </c>
       <c r="C14" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1616,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1664,10 +1666,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>2.350305051013961</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>106.0626366504663</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1774,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>152.355512532834</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1831,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>128.6938131212221</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1856,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>116.97525968298</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2005,22 +2007,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>58.85919379403585</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>89.45544891595532</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2081,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2132,10 +2134,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2144,7 +2146,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>155.5869679636088</v>
+        <v>119.9590006241146</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2239,25 +2241,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2296,13 +2298,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>200.2481571669428</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>146.3752975271664</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2315,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>185.5573750678088</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.16791248334739</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -2488,10 +2490,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>22.28534392847715</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2552,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>357.382048037636</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>255.3262513166928</v>
       </c>
       <c r="F26" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,19 +2608,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2719,7 +2721,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>28.46824604904381</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2728,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>67.4289457920829</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2789,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>20.46799426709925</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2843,19 +2845,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>130.0590093672167</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -2965,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3013,10 +3015,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>102.2146311366279</v>
       </c>
     </row>
     <row r="32">
@@ -3026,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>30.64028706062668</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3044,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3080,10 +3082,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
-        <v>200.0880592593271</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
@@ -3092,7 +3094,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>34.71811217257828</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3244,13 +3246,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>75.86622810093073</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3263,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>294.0897761171536</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>76.24685426157825</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3430,19 +3432,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>119.8634463900538</v>
       </c>
       <c r="F37" t="n">
-        <v>14.14416275345325</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3500,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>149.0244198570051</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>268.3727301458104</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3667,16 +3669,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>83.42661545872123</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3718,7 +3720,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>75.86622810093073</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3737,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>404.4273132084232</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,19 +3793,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>232.8703750563013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3913,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225706</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3955,7 +3957,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>54.66258501924893</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3974,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3995,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4037,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>139.4415894443614</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>150.3005790954542</v>
       </c>
     </row>
     <row r="45">
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4147,7 +4149,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>222.8003025748302</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4304,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1613.531556264254</v>
+        <v>1179.522927011916</v>
       </c>
       <c r="C2" t="n">
-        <v>1184.949882001523</v>
+        <v>1179.522927011916</v>
       </c>
       <c r="D2" t="n">
-        <v>1184.949882001523</v>
+        <v>750.9412527491843</v>
       </c>
       <c r="E2" t="n">
-        <v>756.3682077387909</v>
+        <v>750.9412527491843</v>
       </c>
       <c r="F2" t="n">
-        <v>328.5007781479987</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G2" t="n">
-        <v>323.4906125312521</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="M2" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="N2" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="O2" t="n">
         <v>687.9235674375537</v>
-      </c>
-      <c r="M2" t="n">
-        <v>687.9235674375537</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1107.976466382457</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1107.976466382457</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4358,22 +4360,22 @@
         <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1613.531556264254</v>
+        <v>1179.522927011916</v>
       </c>
       <c r="V2" t="n">
-        <v>1613.531556264254</v>
+        <v>1179.522927011916</v>
       </c>
       <c r="W2" t="n">
-        <v>1613.531556264254</v>
+        <v>1179.522927011916</v>
       </c>
       <c r="X2" t="n">
-        <v>1613.531556264254</v>
+        <v>1179.522927011916</v>
       </c>
       <c r="Y2" t="n">
-        <v>1613.531556264254</v>
+        <v>1179.522927011916</v>
       </c>
     </row>
     <row r="3">
@@ -4383,7 +4385,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>540.1154135929013</v>
       </c>
       <c r="C3" t="n">
         <v>433.6589524295435</v>
@@ -4398,7 +4400,7 @@
         <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4410,19 +4412,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4449,10 +4451,10 @@
         <v>942.7725296545636</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>787.9050938934437</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>661.4193146726644</v>
       </c>
     </row>
     <row r="4">
@@ -4462,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.94366860160834</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="C4" t="n">
-        <v>33.94366860160834</v>
+        <v>199.8216614000857</v>
       </c>
       <c r="D4" t="n">
         <v>33.94366860160834</v>
@@ -4486,25 +4488,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="L4" t="n">
-        <v>452.1535503695694</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="M4" t="n">
-        <v>872.2064493144727</v>
+        <v>540.5762527112014</v>
       </c>
       <c r="N4" t="n">
-        <v>1292.259348259376</v>
+        <v>960.6291516561047</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1380.298400881886</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4531,7 +4533,7 @@
         <v>368.4973157021125</v>
       </c>
       <c r="Y4" t="n">
-        <v>141.0776450162207</v>
+        <v>368.4973157021125</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>38.59981788550692</v>
+        <v>891.5238064999317</v>
       </c>
       <c r="C5" t="n">
-        <v>38.59981788550692</v>
+        <v>462.9421322372</v>
       </c>
       <c r="D5" t="n">
-        <v>38.59981788550692</v>
+        <v>462.9421322372</v>
       </c>
       <c r="E5" t="n">
-        <v>38.59981788550692</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="F5" t="n">
-        <v>38.59981788550692</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G5" t="n">
-        <v>38.59981788550692</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H5" t="n">
         <v>34.36045797446834</v>
@@ -4598,19 +4600,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1317.823376984839</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.327975491451</v>
+        <v>1317.823376984839</v>
       </c>
       <c r="X5" t="n">
-        <v>873.1855120707613</v>
+        <v>1317.823376984839</v>
       </c>
       <c r="Y5" t="n">
-        <v>464.8993883704147</v>
+        <v>1317.823376984839</v>
       </c>
     </row>
     <row r="6">
@@ -4620,7 +4622,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>540.1154135929013</v>
       </c>
       <c r="C6" t="n">
         <v>433.6589524295435</v>
@@ -4635,7 +4637,7 @@
         <v>161.0644105192121</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H6" t="n">
         <v>33.94366860160834</v>
@@ -4644,25 +4646,25 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J6" t="n">
-        <v>319.8519551513677</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K6" t="n">
-        <v>319.8519551513677</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L6" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M6" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N6" t="n">
         <v>1159.957753041174</v>
       </c>
       <c r="O6" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P6" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q6" t="n">
         <v>1580.010651986078</v>
@@ -4686,10 +4688,10 @@
         <v>942.7725296545636</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>787.9050938934437</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>661.4193146726644</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>210.6507226398521</v>
+        <v>176.6786969831253</v>
       </c>
       <c r="C7" t="n">
-        <v>210.6507226398521</v>
+        <v>176.6786969831253</v>
       </c>
       <c r="D7" t="n">
-        <v>210.6507226398521</v>
+        <v>176.6786969831253</v>
       </c>
       <c r="E7" t="n">
-        <v>210.6507226398521</v>
+        <v>176.6786969831253</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>176.6786969831253</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>176.6786969831253</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>36.77652267349987</v>
       </c>
       <c r="I7" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L7" t="n">
-        <v>33.94366860160834</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M7" t="n">
-        <v>341.7616130750586</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N7" t="n">
         <v>761.8145120199619</v>
@@ -4756,19 +4758,19 @@
         <v>1451.303983658873</v>
       </c>
       <c r="U7" t="n">
-        <v>1434.262679254597</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V7" t="n">
-        <v>1147.307171125027</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W7" t="n">
-        <v>875.2807667113186</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X7" t="n">
-        <v>629.8890120447311</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="Y7" t="n">
-        <v>402.4693413588393</v>
+        <v>368.4973157021125</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33.94366860160834</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="C8" t="n">
-        <v>33.94366860160834</v>
+        <v>462.52534286434</v>
       </c>
       <c r="D8" t="n">
-        <v>33.94366860160834</v>
+        <v>462.52534286434</v>
       </c>
       <c r="E8" t="n">
         <v>33.94366860160834</v>
@@ -4802,22 +4804,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J8" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="K8" t="n">
         <v>453.9965675465116</v>
       </c>
-      <c r="K8" t="n">
-        <v>874.0494664914149</v>
-      </c>
       <c r="L8" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M8" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N8" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O8" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P8" t="n">
         <v>1107.976466382457</v>
@@ -4838,16 +4840,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V8" t="n">
-        <v>1334.566480014244</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W8" t="n">
-        <v>929.7110254252771</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="X8" t="n">
-        <v>510.5685620045878</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="Y8" t="n">
-        <v>102.2824383042412</v>
+        <v>891.1070171270717</v>
       </c>
     </row>
     <row r="9">
@@ -4890,13 +4892,13 @@
         <v>384.5656667282782</v>
       </c>
       <c r="M9" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N9" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P9" t="n">
         <v>1159.957753041174</v>
@@ -4936,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>141.0776450162207</v>
+        <v>700.5034523966074</v>
       </c>
       <c r="C10" t="n">
-        <v>141.0776450162207</v>
+        <v>527.9417408798323</v>
       </c>
       <c r="D10" t="n">
-        <v>141.0776450162207</v>
+        <v>362.063748081355</v>
       </c>
       <c r="E10" t="n">
-        <v>141.0776450162207</v>
+        <v>362.063748081355</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>362.063748081355</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I10" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M10" t="n">
-        <v>872.2064493144727</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q10" t="n">
         <v>1697.183430080417</v>
@@ -4993,19 +4995,19 @@
         <v>1451.303983658873</v>
       </c>
       <c r="U10" t="n">
-        <v>1172.870982911978</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="V10" t="n">
-        <v>885.9154747824084</v>
+        <v>1164.348475529303</v>
       </c>
       <c r="W10" t="n">
-        <v>613.8890703687</v>
+        <v>892.3220711155946</v>
       </c>
       <c r="X10" t="n">
-        <v>368.4973157021125</v>
+        <v>892.3220711155946</v>
       </c>
       <c r="Y10" t="n">
-        <v>141.0776450162207</v>
+        <v>892.3220711155946</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>435.7582893512044</v>
+        <v>1270.883859595509</v>
       </c>
       <c r="C11" t="n">
-        <v>435.7582893512044</v>
+        <v>1270.883859595509</v>
       </c>
       <c r="D11" t="n">
-        <v>435.7582893512044</v>
+        <v>1270.883859595509</v>
       </c>
       <c r="E11" t="n">
-        <v>435.7582893512044</v>
+        <v>842.3021853327778</v>
       </c>
       <c r="F11" t="n">
-        <v>435.7582893512044</v>
+        <v>414.4347557419855</v>
       </c>
       <c r="G11" t="n">
         <v>34.36045797446834</v>
@@ -5075,16 +5077,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V11" t="n">
-        <v>1668.042331061207</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W11" t="n">
-        <v>1263.18687647224</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X11" t="n">
-        <v>844.044413051551</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y11" t="n">
-        <v>435.7582893512044</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="12">
@@ -5094,7 +5096,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>540.1154135929012</v>
+        <v>540.1154135929013</v>
       </c>
       <c r="C12" t="n">
         <v>433.6589524295435</v>
@@ -5109,7 +5111,7 @@
         <v>161.0644105192121</v>
       </c>
       <c r="G12" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H12" t="n">
         <v>33.94366860160834</v>
@@ -5124,16 +5126,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L12" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M12" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N12" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O12" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P12" t="n">
         <v>1159.957753041174</v>
@@ -5160,10 +5162,10 @@
         <v>942.7725296545636</v>
       </c>
       <c r="X12" t="n">
-        <v>787.9050938934436</v>
+        <v>787.9050938934437</v>
       </c>
       <c r="Y12" t="n">
-        <v>661.4193146726643</v>
+        <v>661.4193146726644</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1113.00182921349</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="C13" t="n">
-        <v>940.4401176967148</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="D13" t="n">
-        <v>774.5621248982375</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="E13" t="n">
-        <v>604.8041211489747</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F13" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G13" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H13" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I13" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J13" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K13" t="n">
-        <v>395.2818083374338</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L13" t="n">
-        <v>395.2818083374338</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M13" t="n">
-        <v>815.3347072823371</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="N13" t="n">
-        <v>815.3347072823371</v>
+        <v>1146.964903885608</v>
       </c>
       <c r="O13" t="n">
-        <v>1181.483761245743</v>
+        <v>1566.63415311139</v>
       </c>
       <c r="P13" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q13" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R13" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S13" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T13" t="n">
-        <v>1675.765608785789</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U13" t="n">
-        <v>1675.765608785789</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V13" t="n">
-        <v>1388.81010065622</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W13" t="n">
-        <v>1388.81010065622</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X13" t="n">
-        <v>1143.418345989632</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="Y13" t="n">
-        <v>1143.418345989632</v>
+        <v>368.4973157021125</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>462.52534286434</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="C14" t="n">
-        <v>33.94366860160834</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="D14" t="n">
-        <v>33.94366860160834</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="E14" t="n">
-        <v>33.94366860160834</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F14" t="n">
         <v>33.94366860160834</v>
@@ -5279,19 +5281,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K14" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L14" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M14" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N14" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O14" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P14" t="n">
         <v>1107.976466382457</v>
@@ -5312,16 +5314,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V14" t="n">
-        <v>1694.809384574343</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W14" t="n">
-        <v>1289.953929985376</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X14" t="n">
-        <v>870.8114665646866</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="Y14" t="n">
-        <v>462.52534286434</v>
+        <v>869.7548429593813</v>
       </c>
     </row>
     <row r="15">
@@ -5410,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>33.94366860160834</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="C16" t="n">
-        <v>33.94366860160834</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="D16" t="n">
-        <v>33.94366860160834</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="E16" t="n">
-        <v>33.94366860160834</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="F16" t="n">
         <v>33.94366860160834</v>
@@ -5440,46 +5442,46 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L16" t="n">
-        <v>452.1535503695694</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M16" t="n">
-        <v>452.1535503695694</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N16" t="n">
-        <v>761.8145120199619</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O16" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P16" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q16" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R16" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S16" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T16" t="n">
-        <v>1451.303983658873</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U16" t="n">
-        <v>1172.870982911978</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V16" t="n">
-        <v>885.9154747824084</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W16" t="n">
-        <v>613.8890703687</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X16" t="n">
-        <v>368.4973157021125</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="Y16" t="n">
-        <v>141.0776450162207</v>
+        <v>187.8381257054811</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>724.4716545351282</v>
+        <v>592.5190934918371</v>
       </c>
       <c r="C17" t="n">
-        <v>724.4716545351282</v>
+        <v>462.52534286434</v>
       </c>
       <c r="D17" t="n">
-        <v>724.4716545351282</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E17" t="n">
-        <v>724.4716545351282</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F17" t="n">
-        <v>724.4716545351282</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G17" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H17" t="n">
         <v>33.94366860160834</v>
@@ -5516,19 +5518,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K17" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L17" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M17" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N17" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O17" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P17" t="n">
         <v>1107.976466382457</v>
@@ -5540,25 +5542,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S17" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T17" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U17" t="n">
-        <v>1613.531556264254</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V17" t="n">
-        <v>1250.914606198081</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="W17" t="n">
-        <v>1250.914606198081</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="X17" t="n">
-        <v>1132.757778235475</v>
+        <v>1018.818663976745</v>
       </c>
       <c r="Y17" t="n">
-        <v>724.4716545351282</v>
+        <v>1018.818663976745</v>
       </c>
     </row>
     <row r="18">
@@ -5595,25 +5597,25 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K18" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L18" t="n">
-        <v>384.5656667282782</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="M18" t="n">
-        <v>384.5656667282782</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="N18" t="n">
-        <v>384.5656667282782</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="O18" t="n">
-        <v>739.9048540962709</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="P18" t="n">
-        <v>1159.957753041174</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="Q18" t="n">
-        <v>1580.010651986078</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R18" t="n">
         <v>1697.183430080417</v>
@@ -5647,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>973.0996549038641</v>
+        <v>383.2124341566272</v>
       </c>
       <c r="C19" t="n">
-        <v>800.5379433870891</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="D19" t="n">
-        <v>634.6599505886118</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="E19" t="n">
-        <v>464.9019468393491</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F19" t="n">
-        <v>288.1948928011053</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G19" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H19" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I19" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J19" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K19" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L19" t="n">
-        <v>395.2818083374338</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M19" t="n">
-        <v>815.3347072823371</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N19" t="n">
-        <v>1235.38760622724</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O19" t="n">
-        <v>1235.38760622724</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P19" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q19" t="n">
         <v>1697.183430080417</v>
@@ -5701,22 +5703,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T19" t="n">
-        <v>1637.729698975331</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U19" t="n">
-        <v>1637.729698975331</v>
+        <v>1606.824390771372</v>
       </c>
       <c r="V19" t="n">
-        <v>1637.729698975331</v>
+        <v>1319.868882641802</v>
       </c>
       <c r="W19" t="n">
-        <v>1637.729698975331</v>
+        <v>1047.842478228094</v>
       </c>
       <c r="X19" t="n">
-        <v>1392.337944308743</v>
+        <v>802.450723561506</v>
       </c>
       <c r="Y19" t="n">
-        <v>1164.918273622851</v>
+        <v>575.0310528756143</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1182.488464651585</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="C20" t="n">
-        <v>744.3459918350084</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="D20" t="n">
-        <v>744.3459918350084</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="E20" t="n">
-        <v>744.3459918350084</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="F20" t="n">
-        <v>744.3459918350084</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="G20" t="n">
-        <v>342.9481604582723</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H20" t="n">
-        <v>53.81800590148855</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I20" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J20" t="n">
-        <v>488.6559039815464</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K20" t="n">
-        <v>1149.495958523325</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L20" t="n">
-        <v>1293.567921177998</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M20" t="n">
-        <v>1293.567921177998</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N20" t="n">
-        <v>1293.567921177998</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O20" t="n">
-        <v>1293.567921177998</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="P20" t="n">
-        <v>1954.407975719776</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q20" t="n">
-        <v>2500.906761678371</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R20" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S20" t="n">
-        <v>2586.408952615265</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T20" t="n">
-        <v>2366.341725488303</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U20" t="n">
-        <v>2107.11942280532</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V20" t="n">
-        <v>1744.502472739146</v>
+        <v>1250.914606198081</v>
       </c>
       <c r="W20" t="n">
-        <v>1339.64701815018</v>
+        <v>846.059151609114</v>
       </c>
       <c r="X20" t="n">
-        <v>1182.488464651585</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="Y20" t="n">
-        <v>1182.488464651585</v>
+        <v>724.8884439079882</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>559.5729615199214</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C21" t="n">
-        <v>453.1165003565636</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D21" t="n">
-        <v>358.0262115031169</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E21" t="n">
-        <v>263.9057968300706</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F21" t="n">
-        <v>180.5219584462322</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G21" t="n">
-        <v>95.13686871241609</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H21" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I21" t="n">
-        <v>79.46488968908616</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J21" t="n">
-        <v>404.0232146552985</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K21" t="n">
-        <v>1058.729261281022</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L21" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M21" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N21" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O21" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P21" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q21" t="n">
-        <v>1599.468199913098</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R21" t="n">
-        <v>1716.640978007438</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S21" t="n">
-        <v>1653.185540455821</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T21" t="n">
-        <v>1523.006896786422</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U21" t="n">
-        <v>1346.67034978639</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V21" t="n">
-        <v>1147.55283184839</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W21" t="n">
-        <v>962.2300775815838</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X21" t="n">
-        <v>807.3626418204638</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y21" t="n">
-        <v>680.8768625996845</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1132.45937714051</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C22" t="n">
-        <v>959.897665623735</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D22" t="n">
-        <v>794.0196728252577</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E22" t="n">
-        <v>624.2616690759949</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F22" t="n">
-        <v>447.554615037751</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G22" t="n">
-        <v>281.9633400635787</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H22" t="n">
-        <v>142.0611657539532</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I22" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J22" t="n">
-        <v>139.9809016933184</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K22" t="n">
-        <v>414.739356264454</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L22" t="n">
-        <v>832.9492380324151</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M22" t="n">
-        <v>1292.433105213328</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N22" t="n">
-        <v>1734.691908370973</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O22" t="n">
-        <v>2154.361157596754</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P22" t="n">
-        <v>2501.868051567096</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q22" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R22" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S22" t="n">
-        <v>2510.819457729425</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.94001130788</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U22" t="n">
-        <v>1986.507010560985</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V22" t="n">
-        <v>1699.551502431416</v>
+        <v>970.6001170867833</v>
       </c>
       <c r="W22" t="n">
-        <v>1699.551502431416</v>
+        <v>698.5737126730747</v>
       </c>
       <c r="X22" t="n">
-        <v>1551.697666545389</v>
+        <v>453.1819580064872</v>
       </c>
       <c r="Y22" t="n">
-        <v>1324.277995859497</v>
+        <v>225.7622873205955</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1789.095648603258</v>
+        <v>931.3608944498341</v>
       </c>
       <c r="C23" t="n">
-        <v>1350.953175786681</v>
+        <v>931.3608944498341</v>
       </c>
       <c r="D23" t="n">
-        <v>915.0433909611256</v>
+        <v>931.3608944498341</v>
       </c>
       <c r="E23" t="n">
-        <v>481.2686461194208</v>
+        <v>931.3608944498341</v>
       </c>
       <c r="F23" t="n">
-        <v>53.40121652862856</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G23" t="n">
-        <v>53.40121652862856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H23" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I23" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J23" t="n">
         <v>488.6559039815464</v>
@@ -6005,34 +6007,34 @@
         <v>1293.567921177998</v>
       </c>
       <c r="P23" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q23" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R23" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S23" t="n">
-        <v>2634.537682508855</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T23" t="n">
-        <v>2634.537682508855</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U23" t="n">
-        <v>2634.537682508855</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V23" t="n">
-        <v>2634.537682508855</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="W23" t="n">
-        <v>2634.537682508855</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="X23" t="n">
-        <v>2215.395219088166</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="Y23" t="n">
-        <v>2215.395219088166</v>
+        <v>931.3608944498341</v>
       </c>
     </row>
     <row r="24">
@@ -6060,28 +6062,28 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H24" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I24" t="n">
-        <v>79.46488968908616</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J24" t="n">
-        <v>404.0232146552985</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K24" t="n">
-        <v>1058.729261281022</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L24" t="n">
-        <v>1058.729261281022</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M24" t="n">
-        <v>1058.729261281022</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N24" t="n">
-        <v>1058.729261281022</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="O24" t="n">
-        <v>1058.729261281022</v>
+        <v>397.8892067392438</v>
       </c>
       <c r="P24" t="n">
         <v>1058.729261281022</v>
@@ -6121,43 +6123,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>900.7186013536161</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C25" t="n">
-        <v>728.1568898368411</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D25" t="n">
-        <v>562.2788970383638</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E25" t="n">
-        <v>392.520893289101</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F25" t="n">
-        <v>215.8138392508572</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G25" t="n">
-        <v>193.303390838254</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H25" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I25" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J25" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933182</v>
       </c>
       <c r="K25" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644535</v>
       </c>
       <c r="L25" t="n">
-        <v>832.9492380324151</v>
+        <v>832.9492380324147</v>
       </c>
       <c r="M25" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N25" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O25" t="n">
         <v>2154.361157596754</v>
@@ -6169,28 +6171,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R25" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S25" t="n">
-        <v>2648.6430051368</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T25" t="n">
-        <v>2402.763558715255</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U25" t="n">
-        <v>2124.330557968361</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V25" t="n">
-        <v>1837.375049838791</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W25" t="n">
-        <v>1565.348645425083</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X25" t="n">
-        <v>1319.956890758495</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y25" t="n">
-        <v>1092.537220072603</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1642.732807707346</v>
+        <v>1140.571781856453</v>
       </c>
       <c r="C26" t="n">
-        <v>1204.590334890769</v>
+        <v>1140.571781856453</v>
       </c>
       <c r="D26" t="n">
-        <v>1204.590334890769</v>
+        <v>1140.571781856453</v>
       </c>
       <c r="E26" t="n">
-        <v>770.8155900490646</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F26" t="n">
-        <v>342.9481604582723</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G26" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H26" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I26" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J26" t="n">
         <v>488.6559039815464</v>
@@ -6239,13 +6241,13 @@
         <v>1293.567921177998</v>
       </c>
       <c r="O26" t="n">
-        <v>1293.567921177998</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="P26" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q26" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R26" t="n">
         <v>2670.060826431428</v>
@@ -6254,22 +6256,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T26" t="n">
-        <v>2366.341725488303</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U26" t="n">
-        <v>2366.341725488303</v>
+        <v>2327.186649932282</v>
       </c>
       <c r="V26" t="n">
-        <v>2003.72477542213</v>
+        <v>1964.569699866109</v>
       </c>
       <c r="W26" t="n">
-        <v>2003.72477542213</v>
+        <v>1559.714245277142</v>
       </c>
       <c r="X26" t="n">
-        <v>2003.72477542213</v>
+        <v>1140.571781856453</v>
       </c>
       <c r="Y26" t="n">
-        <v>2003.72477542213</v>
+        <v>1140.571781856453</v>
       </c>
     </row>
     <row r="27">
@@ -6297,7 +6299,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H27" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I27" t="n">
         <v>79.46488968908616</v>
@@ -6358,43 +6360,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.8950539462403</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C28" t="n">
-        <v>590.3333424294652</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D28" t="n">
-        <v>424.4553496309879</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E28" t="n">
-        <v>395.6995455410447</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F28" t="n">
-        <v>218.9924915028009</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G28" t="n">
-        <v>53.40121652862856</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H28" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I28" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J28" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K28" t="n">
-        <v>414.7393562644539</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L28" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M28" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N28" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O28" t="n">
         <v>2154.361157596754</v>
@@ -6409,25 +6411,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S28" t="n">
-        <v>2510.819457729424</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.94001130788</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U28" t="n">
-        <v>1986.507010560985</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V28" t="n">
-        <v>1699.551502431415</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W28" t="n">
-        <v>1427.525098017707</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X28" t="n">
-        <v>1182.133343351119</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y28" t="n">
-        <v>954.7136726652275</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>491.5436893452052</v>
+        <v>1361.228219012466</v>
       </c>
       <c r="C29" t="n">
-        <v>53.40121652862856</v>
+        <v>923.085746195889</v>
       </c>
       <c r="D29" t="n">
-        <v>53.40121652862856</v>
+        <v>487.1759613703334</v>
       </c>
       <c r="E29" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="F29" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G29" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H29" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I29" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J29" t="n">
         <v>488.6559039815464</v>
@@ -6479,10 +6481,10 @@
         <v>1293.567921177998</v>
       </c>
       <c r="P29" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q29" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R29" t="n">
         <v>2670.060826431428</v>
@@ -6491,22 +6493,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T29" t="n">
-        <v>2366.341725488303</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U29" t="n">
-        <v>2107.11942280532</v>
+        <v>2327.186649932282</v>
       </c>
       <c r="V29" t="n">
-        <v>1744.502472739146</v>
+        <v>2327.186649932282</v>
       </c>
       <c r="W29" t="n">
-        <v>1339.64701815018</v>
+        <v>2195.81391319772</v>
       </c>
       <c r="X29" t="n">
-        <v>920.5045547294905</v>
+        <v>2195.81391319772</v>
       </c>
       <c r="Y29" t="n">
-        <v>512.2184310291439</v>
+        <v>1787.527789497373</v>
       </c>
     </row>
     <row r="30">
@@ -6534,7 +6536,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H30" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I30" t="n">
         <v>79.46488968908616</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>903.8972536055599</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C31" t="n">
-        <v>731.3355420887848</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D31" t="n">
-        <v>565.4575492903075</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E31" t="n">
-        <v>395.6995455410447</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F31" t="n">
-        <v>218.9924915028009</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G31" t="n">
-        <v>53.40121652862856</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H31" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I31" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J31" t="n">
         <v>139.9809016933184</v>
@@ -6646,25 +6648,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S31" t="n">
-        <v>2651.821657388744</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T31" t="n">
-        <v>2405.942210967199</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U31" t="n">
-        <v>2127.509210220304</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V31" t="n">
-        <v>1840.553702090735</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W31" t="n">
-        <v>1568.527297677026</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X31" t="n">
-        <v>1323.135543010439</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="Y31" t="n">
-        <v>1095.715872324547</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1208.541273492781</v>
+        <v>481.2686461194209</v>
       </c>
       <c r="C32" t="n">
-        <v>770.3988006762045</v>
+        <v>481.2686461194209</v>
       </c>
       <c r="D32" t="n">
-        <v>770.3988006762045</v>
+        <v>481.2686461194209</v>
       </c>
       <c r="E32" t="n">
-        <v>770.3988006762045</v>
+        <v>481.2686461194209</v>
       </c>
       <c r="F32" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G32" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H32" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I32" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J32" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K32" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L32" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M32" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N32" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O32" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P32" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q32" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R32" t="n">
         <v>2670.060826431428</v>
@@ -6728,22 +6730,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T32" t="n">
-        <v>2586.408952615265</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U32" t="n">
-        <v>2384.299801848268</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V32" t="n">
-        <v>2021.682851782094</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="W32" t="n">
-        <v>1616.827397193128</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="X32" t="n">
-        <v>1616.827397193128</v>
+        <v>920.5045547294914</v>
       </c>
       <c r="Y32" t="n">
-        <v>1208.541273492781</v>
+        <v>512.2184310291448</v>
       </c>
     </row>
     <row r="33">
@@ -6771,16 +6773,16 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H33" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I33" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J33" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K33" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L33" t="n">
         <v>1058.729261281022</v>
@@ -6853,22 +6855,22 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I34" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J34" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933188</v>
       </c>
       <c r="K34" t="n">
-        <v>414.7393562644539</v>
+        <v>414.7393562644543</v>
       </c>
       <c r="L34" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324155</v>
       </c>
       <c r="M34" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N34" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O34" t="n">
         <v>2154.361157596754</v>
@@ -6883,19 +6885,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S34" t="n">
-        <v>2634.992026257106</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T34" t="n">
-        <v>2389.112579835562</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U34" t="n">
-        <v>2110.679579088667</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V34" t="n">
-        <v>1823.724070959097</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W34" t="n">
-        <v>1551.697666545389</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X34" t="n">
         <v>1551.697666545389</v>
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1179.726857412474</v>
+        <v>1430.619677657207</v>
       </c>
       <c r="C35" t="n">
-        <v>882.6664774961569</v>
+        <v>992.4772048406303</v>
       </c>
       <c r="D35" t="n">
-        <v>882.6664774961569</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E35" t="n">
-        <v>882.6664774961569</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F35" t="n">
-        <v>454.7990479053647</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="G35" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H35" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I35" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J35" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K35" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L35" t="n">
-        <v>1293.567921177998</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M35" t="n">
-        <v>1293.567921177998</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N35" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O35" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P35" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q35" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R35" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S35" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T35" t="n">
-        <v>2366.341725488303</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U35" t="n">
-        <v>2366.341725488303</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V35" t="n">
-        <v>2003.72477542213</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W35" t="n">
-        <v>1598.869320833163</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X35" t="n">
-        <v>1179.726857412474</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="Y35" t="n">
-        <v>1179.726857412474</v>
+        <v>1856.919248142115</v>
       </c>
     </row>
     <row r="36">
@@ -7008,7 +7010,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H36" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I36" t="n">
         <v>79.46488968908616</v>
@@ -7017,22 +7019,22 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K36" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L36" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M36" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N36" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O36" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P36" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q36" t="n">
         <v>1599.468199913098</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>741.4772326516122</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C37" t="n">
-        <v>568.9155211348371</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D37" t="n">
-        <v>403.0375283363599</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E37" t="n">
-        <v>233.2795245870971</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="F37" t="n">
-        <v>218.9924915028009</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G37" t="n">
-        <v>53.40121652862856</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H37" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I37" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J37" t="n">
         <v>139.9809016933184</v>
@@ -7120,25 +7122,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S37" t="n">
-        <v>2489.401636434796</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.522190013251</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U37" t="n">
         <v>1965.089189266357</v>
       </c>
       <c r="V37" t="n">
-        <v>1678.133681136787</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W37" t="n">
         <v>1406.107276723079</v>
       </c>
       <c r="X37" t="n">
-        <v>1160.715522056491</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y37" t="n">
-        <v>933.2958513705994</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1789.512437976118</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="C38" t="n">
-        <v>1351.369965159541</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="D38" t="n">
-        <v>915.4601803339856</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="E38" t="n">
-        <v>481.6854354922808</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F38" t="n">
-        <v>53.81800590148855</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G38" t="n">
-        <v>53.81800590148855</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H38" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I38" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J38" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K38" t="n">
-        <v>632.7278666362198</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="L38" t="n">
-        <v>632.7278666362198</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="M38" t="n">
-        <v>632.7278666362198</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="N38" t="n">
-        <v>632.7278666362198</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O38" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P38" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q38" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R38" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S38" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T38" t="n">
-        <v>2366.341725488303</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="U38" t="n">
-        <v>2215.812008461025</v>
+        <v>2190.771296621484</v>
       </c>
       <c r="V38" t="n">
-        <v>2215.812008461025</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W38" t="n">
-        <v>2215.812008461025</v>
+        <v>1423.298891966344</v>
       </c>
       <c r="X38" t="n">
-        <v>2215.812008461025</v>
+        <v>1152.215326162495</v>
       </c>
       <c r="Y38" t="n">
-        <v>2215.812008461025</v>
+        <v>743.9292024621484</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C39" t="n">
-        <v>1406.536348780554</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D39" t="n">
-        <v>1311.446059927107</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E39" t="n">
-        <v>1217.325645254061</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F39" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G39" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H39" t="n">
-        <v>1006.821064952619</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I39" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J39" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K39" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L39" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M39" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N39" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O39" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P39" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q39" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R39" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S39" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T39" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U39" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V39" t="n">
-        <v>2100.97268027238</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W39" t="n">
-        <v>1915.649926005574</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X39" t="n">
-        <v>1760.782490244454</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y39" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="40">
@@ -7306,43 +7308,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>741.4772326516122</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C40" t="n">
-        <v>568.9155211348371</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D40" t="n">
-        <v>403.0375283363599</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E40" t="n">
-        <v>318.768219792197</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F40" t="n">
-        <v>142.0611657539532</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G40" t="n">
-        <v>142.0611657539532</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H40" t="n">
         <v>142.0611657539532</v>
       </c>
       <c r="I40" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J40" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933188</v>
       </c>
       <c r="K40" t="n">
-        <v>414.7393562644539</v>
+        <v>414.7393562644543</v>
       </c>
       <c r="L40" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324155</v>
       </c>
       <c r="M40" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N40" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O40" t="n">
         <v>2154.361157596754</v>
@@ -7354,28 +7356,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R40" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S40" t="n">
-        <v>2489.401636434796</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.522190013251</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U40" t="n">
-        <v>1965.089189266357</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V40" t="n">
-        <v>1678.133681136787</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W40" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X40" t="n">
-        <v>1160.715522056491</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y40" t="n">
-        <v>933.2958513705994</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="41">
@@ -7385,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>925.3184341869101</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="C41" t="n">
-        <v>487.1759613703334</v>
+        <v>2041.481161720201</v>
       </c>
       <c r="D41" t="n">
-        <v>487.1759613703334</v>
+        <v>1605.571376894645</v>
       </c>
       <c r="E41" t="n">
-        <v>53.40121652862856</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="F41" t="n">
-        <v>53.40121652862856</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G41" t="n">
-        <v>53.40121652862856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H41" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I41" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J41" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K41" t="n">
-        <v>488.6559039815464</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="L41" t="n">
-        <v>488.6559039815464</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="M41" t="n">
-        <v>488.6559039815464</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="N41" t="n">
-        <v>632.7278666362198</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O41" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P41" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q41" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R41" t="n">
         <v>2670.060826431428</v>
@@ -7439,22 +7441,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T41" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="U41" t="n">
-        <v>2410.838523748444</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="V41" t="n">
-        <v>2175.615922681473</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="W41" t="n">
-        <v>1770.760468092507</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="X41" t="n">
-        <v>1351.618004671818</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="Y41" t="n">
-        <v>1351.618004671818</v>
+        <v>2449.993599304467</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C42" t="n">
-        <v>1406.536348780554</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D42" t="n">
-        <v>1311.446059927107</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E42" t="n">
-        <v>1217.325645254061</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F42" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G42" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H42" t="n">
-        <v>1006.821064952619</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I42" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J42" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K42" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L42" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M42" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N42" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O42" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P42" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q42" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R42" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S42" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T42" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U42" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V42" t="n">
-        <v>2100.97268027238</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W42" t="n">
-        <v>1915.649926005574</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X42" t="n">
-        <v>1760.782490244454</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y42" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="43">
@@ -7543,43 +7545,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>903.8972536055599</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C43" t="n">
-        <v>731.3355420887848</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D43" t="n">
-        <v>565.4575492903075</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E43" t="n">
-        <v>395.6995455410447</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F43" t="n">
-        <v>218.9924915028009</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G43" t="n">
-        <v>53.40121652862856</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H43" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I43" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J43" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933188</v>
       </c>
       <c r="K43" t="n">
-        <v>414.7393562644539</v>
+        <v>414.7393562644543</v>
       </c>
       <c r="L43" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324155</v>
       </c>
       <c r="M43" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N43" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O43" t="n">
         <v>2154.361157596754</v>
@@ -7591,28 +7593,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R43" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S43" t="n">
-        <v>2651.821657388744</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T43" t="n">
-        <v>2405.942210967199</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U43" t="n">
-        <v>2127.509210220304</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V43" t="n">
-        <v>1840.553702090735</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W43" t="n">
-        <v>1568.527297677026</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X43" t="n">
-        <v>1323.135543010439</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1095.715872324547</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>462.52534286434</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="C44" t="n">
-        <v>33.94366860160834</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D44" t="n">
-        <v>33.94366860160834</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E44" t="n">
-        <v>33.94366860160834</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F44" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="G44" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H44" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I44" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J44" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K44" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L44" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M44" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N44" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O44" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P44" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q44" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R44" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S44" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T44" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U44" t="n">
-        <v>1437.961127397434</v>
+        <v>2327.186649932282</v>
       </c>
       <c r="V44" t="n">
-        <v>1437.961127397434</v>
+        <v>2327.186649932282</v>
       </c>
       <c r="W44" t="n">
-        <v>1437.961127397434</v>
+        <v>1922.331195343316</v>
       </c>
       <c r="X44" t="n">
-        <v>1297.111037049594</v>
+        <v>1503.188731922626</v>
       </c>
       <c r="Y44" t="n">
-        <v>888.8249133492478</v>
+        <v>1351.369965159541</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C45" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D45" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E45" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F45" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G45" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H45" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I45" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J45" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K45" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L45" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M45" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N45" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O45" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P45" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q45" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R45" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S45" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T45" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U45" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V45" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W45" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X45" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y45" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>711.8779941617646</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C46" t="n">
-        <v>711.8779941617646</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D46" t="n">
-        <v>546.0000013632873</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E46" t="n">
-        <v>376.2419976140245</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F46" t="n">
-        <v>199.5349435757807</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G46" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H46" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I46" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J46" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933182</v>
       </c>
       <c r="K46" t="n">
-        <v>395.2818083374338</v>
+        <v>414.7393562644535</v>
       </c>
       <c r="L46" t="n">
-        <v>761.43086230084</v>
+        <v>832.9492380324147</v>
       </c>
       <c r="M46" t="n">
-        <v>1181.483761245743</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N46" t="n">
-        <v>1181.483761245743</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O46" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P46" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q46" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R46" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S46" t="n">
-        <v>1697.183430080417</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T46" t="n">
-        <v>1451.303983658873</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U46" t="n">
-        <v>1226.253172977226</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V46" t="n">
-        <v>939.2976648476563</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W46" t="n">
-        <v>939.2976648476563</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X46" t="n">
-        <v>939.2976648476563</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y46" t="n">
-        <v>711.8779941617646</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8058,10 +8060,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888815</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8134,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>150.1941962971705</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8292,28 +8294,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>262.4693064538401</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O6" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,19 +8373,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M7" t="n">
-        <v>310.9272166398487</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8450,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>424.2958575201043</v>
@@ -8468,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q8" t="n">
         <v>424.2958575201044</v>
@@ -8538,16 +8540,16 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -8608,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8772,7 +8774,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>424.2958575201044</v>
@@ -8845,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
       <c r="O13" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>131.8679565343714</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8927,7 +8929,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8939,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P14" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q14" t="n">
         <v>424.2958575201044</v>
@@ -9088,22 +9090,22 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N16" t="n">
-        <v>312.7888501519116</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O16" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9164,7 +9166,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9176,10 +9178,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P17" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q17" t="n">
         <v>424.2958575201044</v>
@@ -9243,10 +9245,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>52.98895607821112</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>424.2958575201044</v>
@@ -9264,7 +9266,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9319,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M19" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N19" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>296.5687363523682</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9398,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L20" t="n">
-        <v>145.5272350047205</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9413,16 +9415,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P20" t="n">
-        <v>667.515206607857</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,10 +9482,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9498,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9556,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9641,7 +9643,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L23" t="n">
-        <v>145.5272350047205</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9653,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
@@ -9711,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,10 +9731,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>347.9676668794093</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9878,7 +9880,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L26" t="n">
-        <v>145.5272350047205</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,10 +9889,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P26" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
@@ -10030,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -10039,7 +10041,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645589</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -10115,7 +10117,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L29" t="n">
-        <v>145.5272350047205</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10127,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
@@ -10349,7 +10351,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10358,13 +10360,13 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O32" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P32" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
@@ -10422,16 +10424,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L33" t="n">
-        <v>20.13097499434639</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10504,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908102</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -10586,22 +10588,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P35" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -10665,7 +10667,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10683,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10750,7 +10752,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645589</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
@@ -10759,7 +10761,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165066</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
         <v>169.8916917821538</v>
@@ -10820,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>585.1784344521124</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10835,10 +10837,10 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P38" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
@@ -10978,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908102</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -11060,7 +11062,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11069,13 +11071,13 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P41" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11215,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908102</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11306,16 +11308,16 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O44" t="n">
-        <v>236.2898988798406</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P44" t="n">
-        <v>424.2958575201044</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q44" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11376,10 +11378,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11394,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -11458,16 +11460,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
@@ -22547,25 +22549,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>392.4237891023895</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,10 +22600,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>44.82809155203009</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -22702,13 +22704,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>83.83779588133098</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>3.847196642600778</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -22771,7 +22773,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -22784,13 +22786,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
@@ -22799,7 +22801,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>282.0418866992877</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22838,19 +22840,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>240.0544076570428</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -22951,16 +22953,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>84.9688242018988</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22996,7 +22998,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>258.7777793791926</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23008,7 +23010,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -23018,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>354.3811927744522</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
@@ -23078,16 +23080,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>17.74229000574729</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -23176,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>68.87734684739507</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>65.37298583908208</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23233,7 +23235,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -23242,10 +23244,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -23264,13 +23266,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>21.11029827312677</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -23315,16 +23317,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>330.1410925364935</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>159.7880809234163</v>
+        <v>33.63230540015954</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>18.17226746074778</v>
       </c>
       <c r="C14" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -23504,7 +23506,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -23552,10 +23554,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>356.6404755144978</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>83.83779588133098</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -23662,7 +23664,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>22.58447096502732</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23729,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>305.0672349671888</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -23744,10 +23746,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -23780,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>297.9757791035024</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,16 +23943,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>184.5614581632934</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>186.1932218234704</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23969,7 +23971,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -24020,10 +24022,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24032,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>259.3640708228736</v>
+        <v>294.9920381623679</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>83.83779588133106</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>96.56253959275526</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24203,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>238.0313802270755</v>
       </c>
       <c r="G23" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0.4126214791313976</v>
@@ -24254,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>47.64744259465397</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24376,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>141.6500182959535</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24440,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>64.65452674242266</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>174.110746076595</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,19 +24496,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -24607,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>139.5921776627263</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24651,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>208.2197249473428</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24677,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>401.5685805129594</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>423.5887552948843</v>
@@ -24731,19 +24733,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>270.7478906758603</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>122.9308428424049</v>
       </c>
     </row>
     <row r="32">
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>391.396287719432</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
@@ -24932,7 +24934,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
         <v>0.4126214791313976</v>
@@ -24968,10 +24970,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>56.54202039682613</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24980,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>122.930842842405</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>208.2197249473431</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25151,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>139.6712719712573</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>355.3038327157217</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25318,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>48.19697732171633</v>
       </c>
       <c r="F37" t="n">
-        <v>160.7958207444081</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25388,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>107.6056597991482</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>146.578308640672</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25555,16 +25557,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>84.63380825304888</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>208.2197249473431</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25625,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>29.33373487998773</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -25679,19 +25681,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>126.1204055092104</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627262</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>229.4233680290249</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25862,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
@@ -25883,7 +25885,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -25925,13 +25927,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>275.509449342121</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>253.9026833678889</v>
       </c>
     </row>
     <row r="45">
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26035,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
@@ -26071,22 +26073,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>52.84836816459551</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>355207.0443943543</v>
+        <v>355207.0443943542</v>
       </c>
     </row>
     <row r="5">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>499690.3934525951</v>
+        <v>355207.0443943543</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>499690.3934525951</v>
+        <v>499690.3934525952</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>499690.3934525952</v>
+        <v>499690.3934525951</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>499690.393452595</v>
+        <v>499690.3934525952</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355207.0443943543</v>
+        <v>499690.3934525952</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>96161.8700496588</v>
+      </c>
+      <c r="C2" t="n">
         <v>96161.87004965881</v>
       </c>
-      <c r="C2" t="n">
-        <v>96161.87004965878</v>
-      </c>
       <c r="D2" t="n">
+        <v>96161.87004965881</v>
+      </c>
+      <c r="E2" t="n">
+        <v>96161.87004965881</v>
+      </c>
+      <c r="F2" t="n">
+        <v>96161.87004965883</v>
+      </c>
+      <c r="G2" t="n">
         <v>96161.8700496588</v>
       </c>
-      <c r="E2" t="n">
-        <v>96161.87004965878</v>
-      </c>
-      <c r="F2" t="n">
-        <v>96161.8700496588</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>96161.87004965881</v>
-      </c>
-      <c r="H2" t="n">
-        <v>135276.491383162</v>
       </c>
       <c r="I2" t="n">
         <v>135276.4913831621</v>
@@ -26338,13 +26340,13 @@
         <v>135276.4913831621</v>
       </c>
       <c r="K2" t="n">
-        <v>135276.491383162</v>
+        <v>135276.4913831621</v>
       </c>
       <c r="L2" t="n">
         <v>135276.4913831621</v>
       </c>
       <c r="M2" t="n">
-        <v>135276.491383162</v>
+        <v>135276.4913831621</v>
       </c>
       <c r="N2" t="n">
         <v>135276.4913831621</v>
@@ -26353,7 +26355,7 @@
         <v>135276.4913831621</v>
       </c>
       <c r="P2" t="n">
-        <v>96161.87004965881</v>
+        <v>135276.4913831621</v>
       </c>
     </row>
     <row r="3">
@@ -26381,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>65622.76935801745</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>64677.13252876429</v>
       </c>
       <c r="J3" t="n">
         <v>111014.4653449902</v>
@@ -26433,7 +26435,7 @@
         <v>31028.66177247689</v>
       </c>
       <c r="H4" t="n">
-        <v>43649.82185483626</v>
+        <v>31028.66177247689</v>
       </c>
       <c r="I4" t="n">
         <v>43649.82185483626</v>
@@ -26445,19 +26447,19 @@
         <v>43649.82185483626</v>
       </c>
       <c r="L4" t="n">
-        <v>43649.82185483625</v>
+        <v>43649.82185483626</v>
       </c>
       <c r="M4" t="n">
-        <v>43649.82185483625</v>
+        <v>43649.82185483626</v>
       </c>
       <c r="N4" t="n">
-        <v>43649.82185483625</v>
+        <v>43649.82185483626</v>
       </c>
       <c r="O4" t="n">
-        <v>43649.82185483625</v>
+        <v>43649.82185483626</v>
       </c>
       <c r="P4" t="n">
-        <v>31028.6617724769</v>
+        <v>43649.82185483626</v>
       </c>
     </row>
     <row r="5">
@@ -26485,31 +26487,31 @@
         <v>25797.18813722234</v>
       </c>
       <c r="H5" t="n">
-        <v>40584.9245617577</v>
+        <v>25797.18813722234</v>
       </c>
       <c r="I5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="J5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="K5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="L5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="M5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="N5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="O5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="P5" t="n">
-        <v>25797.18813722234</v>
+        <v>40584.92456175771</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-136482.8805197504</v>
       </c>
       <c r="C6" t="n">
-        <v>5708.420139959548</v>
+        <v>5708.420139959577</v>
       </c>
       <c r="D6" t="n">
-        <v>5708.420139959555</v>
+        <v>5708.420139959577</v>
       </c>
       <c r="E6" t="n">
-        <v>39336.02013995955</v>
+        <v>39336.02013995958</v>
       </c>
       <c r="F6" t="n">
+        <v>39336.02013995959</v>
+      </c>
+      <c r="G6" t="n">
         <v>39336.02013995956</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>39336.02013995958</v>
       </c>
-      <c r="H6" t="n">
-        <v>-14581.02439144938</v>
-      </c>
       <c r="I6" t="n">
-        <v>51041.74496656814</v>
+        <v>-13635.38756219619</v>
       </c>
       <c r="J6" t="n">
-        <v>-59972.72037842208</v>
+        <v>-59972.72037842209</v>
       </c>
       <c r="K6" t="n">
-        <v>51041.74496656808</v>
+        <v>51041.74496656813</v>
       </c>
       <c r="L6" t="n">
+        <v>51041.74496656813</v>
+      </c>
+      <c r="M6" t="n">
+        <v>51041.74496656813</v>
+      </c>
+      <c r="N6" t="n">
+        <v>51041.74496656809</v>
+      </c>
+      <c r="O6" t="n">
+        <v>51041.74496656812</v>
+      </c>
+      <c r="P6" t="n">
         <v>51041.74496656811</v>
-      </c>
-      <c r="M6" t="n">
-        <v>51041.74496656808</v>
-      </c>
-      <c r="N6" t="n">
-        <v>51041.74496656811</v>
-      </c>
-      <c r="O6" t="n">
-        <v>51041.74496656811</v>
-      </c>
-      <c r="P6" t="n">
-        <v>39336.02013995957</v>
       </c>
     </row>
   </sheetData>
@@ -26805,31 +26807,31 @@
         <v>424.2958575201043</v>
       </c>
       <c r="H4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="I4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078571</v>
       </c>
     </row>
   </sheetData>
@@ -27027,10 +27029,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>243.2193490877527</v>
       </c>
       <c r="J4" t="n">
         <v>424.2958575201043</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34778,10 +34780,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888815</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>150.1941962971705</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>262.4693064538401</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O6" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,19 +35093,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M7" t="n">
-        <v>310.9272166398487</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -35170,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>424.2958575201043</v>
@@ -35188,7 +35190,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q8" t="n">
         <v>424.2958575201044</v>
@@ -35258,16 +35260,16 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35492,7 +35494,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35504,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>424.2958575201044</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
       <c r="O13" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>131.8679565343714</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,7 +35649,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -35659,10 +35661,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P14" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q14" t="n">
         <v>424.2958575201044</v>
@@ -35808,22 +35810,22 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N16" t="n">
-        <v>312.7888501519116</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,7 +35886,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -35896,10 +35898,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P17" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q17" t="n">
         <v>424.2958575201044</v>
@@ -35963,10 +35965,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>52.98895607821112</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35975,7 +35977,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>424.2958575201044</v>
@@ -35984,7 +35986,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M19" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N19" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
-        <v>296.5687363523682</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L20" t="n">
-        <v>145.5272350047205</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -36133,16 +36135,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P20" t="n">
-        <v>667.515206607857</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,10 +36202,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36218,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908068</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
-        <v>351.017064616507</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,7 +36363,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L23" t="n">
-        <v>145.5272350047205</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -36373,7 +36375,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157523</v>
@@ -36431,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36449,10 +36451,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>347.9676668794093</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908046</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
@@ -36534,7 +36536,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,7 +36600,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L26" t="n">
-        <v>145.5272350047205</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -36607,10 +36609,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P26" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157523</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36759,7 +36761,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645589</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -36835,7 +36837,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L29" t="n">
-        <v>145.5272350047205</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -36847,7 +36849,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
@@ -37069,7 +37071,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -37078,13 +37080,13 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O32" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P32" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157523</v>
@@ -37142,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L33" t="n">
-        <v>20.13097499434639</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908102</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37306,22 +37308,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P35" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
@@ -37379,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37394,7 +37396,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37470,16 +37472,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645589</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
         <v>169.8916917821539</v>
@@ -37540,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>585.1784344521124</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -37555,10 +37557,10 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P38" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
@@ -37619,7 +37621,7 @@
         <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>661.3192390158827</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908102</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37780,7 +37782,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -37789,13 +37791,13 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P41" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
@@ -37856,7 +37858,7 @@
         <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>661.3192390158827</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908102</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -38026,16 +38028,16 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O44" t="n">
-        <v>236.2898988798406</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P44" t="n">
-        <v>424.2958575201044</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q44" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697544</v>
@@ -38090,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908046</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L46" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48204.75884098891</v>
+        <v>42705.63394991063</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23845934.64571015</v>
+        <v>23845934.64571014</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9134618.112059632</v>
+        <v>9134618.112059642</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>211.8019881041232</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>246.9065536196815</v>
       </c>
     </row>
     <row r="3">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>166.9888977590065</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>90.56719172652049</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>424.2958575201043</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>118.9363729084689</v>
+        <v>323.5190143119671</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1056,25 +1056,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>2.804525531172609</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>54.4222668429457</v>
       </c>
     </row>
     <row r="8">
@@ -1138,10 +1138,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>397.2087487807351</v>
+        <v>310.9970312824675</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1299,19 +1299,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>98.56237638534853</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>72.21462998383448</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1378,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>376.273554789842</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>308.2680189286039</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>156.2681271316377</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>203.1745834463908</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>403.8643073193109</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1618,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>120.3716221032459</v>
       </c>
     </row>
     <row r="15">
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>152.355512532834</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>20.44516710494341</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1843,17 +1843,17 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>128.6938131212221</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>365.5543319139209</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>94.00841246549285</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>89.45544891595532</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2083,25 +2083,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>221.1583134026086</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,10 +2143,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>119.9590006241146</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>164.2647014065585</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2298,10 +2298,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>200.2481571669428</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2320,16 +2320,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>185.5573750678088</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>397.3838530629687</v>
@@ -2380,13 +2380,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>125.2558025085172</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2493,7 +2493,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>253.8159699232727</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2563,19 +2563,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>255.3262513166928</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
         <v>256.6300796561533</v>
@@ -2617,13 +2617,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2715,10 +2715,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>111.9183464525221</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2727,7 +2727,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
-        <v>256.6300796561533</v>
+        <v>238.6877377825988</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>130.0590093672167</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2964,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>102.2146311366279</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>30.64028706062668</v>
+        <v>403.4239299234998</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3040,13 +3040,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>256.6300796561533</v>
@@ -3094,7 +3094,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -3204,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3246,7 +3246,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>75.86622810093073</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>76.24685426157825</v>
+        <v>129.1844953677058</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -3432,19 +3432,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>119.8634463900538</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225712</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3505,19 +3505,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>329.2865933825188</v>
       </c>
       <c r="H38" t="n">
         <v>286.2388530112159</v>
@@ -3556,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>268.3727301458104</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3675,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022511</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3720,7 +3720,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>75.86622810093073</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>404.4273132084232</v>
+        <v>32.19246757545142</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3903,10 +3903,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>54.18430635300755</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3918,7 +3918,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3957,7 +3957,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>54.66258501924893</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>242.1678279138938</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -3994,10 +3994,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>150.3005790954542</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4149,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>24.34318456170476</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>5.990622819018782</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1179.522927011916</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C2" t="n">
-        <v>1179.522927011916</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D2" t="n">
-        <v>750.9412527491843</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E2" t="n">
-        <v>750.9412527491843</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F2" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4333,19 +4333,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4357,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1393.464329137293</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U2" t="n">
-        <v>1179.522927011916</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V2" t="n">
-        <v>1179.522927011916</v>
+        <v>1114.499252887282</v>
       </c>
       <c r="W2" t="n">
-        <v>1179.522927011916</v>
+        <v>709.6437982983157</v>
       </c>
       <c r="X2" t="n">
-        <v>1179.522927011916</v>
+        <v>709.6437982983157</v>
       </c>
       <c r="Y2" t="n">
-        <v>1179.522927011916</v>
+        <v>460.2432390865162</v>
       </c>
     </row>
     <row r="3">
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929013</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
         <v>433.6589524295435</v>
@@ -4400,7 +4400,7 @@
         <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4451,10 +4451,10 @@
         <v>942.7725296545636</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934437</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726644</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="4">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>368.4973157021125</v>
+        <v>718.8484307043673</v>
       </c>
       <c r="C4" t="n">
-        <v>199.8216614000857</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F4" t="n">
         <v>33.94366860160834</v>
@@ -4491,19 +4491,19 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>120.5233537662982</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>120.5233537662982</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
-        <v>540.5762527112014</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N4" t="n">
-        <v>960.6291516561047</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O4" t="n">
-        <v>1380.298400881886</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
         <v>1528.990655216085</v>
@@ -4512,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U4" t="n">
-        <v>1172.870982911978</v>
+        <v>1425.042228238816</v>
       </c>
       <c r="V4" t="n">
-        <v>885.9154747824084</v>
+        <v>1138.086720109246</v>
       </c>
       <c r="W4" t="n">
-        <v>613.8890703687</v>
+        <v>1138.086720109246</v>
       </c>
       <c r="X4" t="n">
-        <v>368.4973157021125</v>
+        <v>1138.086720109246</v>
       </c>
       <c r="Y4" t="n">
-        <v>368.4973157021125</v>
+        <v>910.6670494233545</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>891.5238064999317</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="C5" t="n">
-        <v>462.9421322372</v>
+        <v>462.52534286434</v>
       </c>
       <c r="D5" t="n">
-        <v>462.9421322372</v>
+        <v>462.52534286434</v>
       </c>
       <c r="E5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I5" t="n">
         <v>33.94366860160834</v>
@@ -4570,16 +4570,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O5" t="n">
         <v>687.9235674375537</v>
@@ -4597,22 +4597,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U5" t="n">
-        <v>1437.961127397434</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V5" t="n">
-        <v>1317.823376984839</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="W5" t="n">
-        <v>1317.823376984839</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="X5" t="n">
-        <v>1317.823376984839</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="Y5" t="n">
-        <v>1317.823376984839</v>
+        <v>891.1070171270717</v>
       </c>
     </row>
     <row r="6">
@@ -4622,7 +4622,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929013</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C6" t="n">
         <v>433.6589524295435</v>
@@ -4637,7 +4637,7 @@
         <v>161.0644105192121</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H6" t="n">
         <v>33.94366860160834</v>
@@ -4688,10 +4688,10 @@
         <v>942.7725296545636</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934437</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726644</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="7">
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>176.6786969831253</v>
+        <v>1024.341879988165</v>
       </c>
       <c r="C7" t="n">
-        <v>176.6786969831253</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="D7" t="n">
-        <v>176.6786969831253</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E7" t="n">
-        <v>176.6786969831253</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F7" t="n">
-        <v>176.6786969831253</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G7" t="n">
-        <v>176.6786969831253</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H7" t="n">
-        <v>36.77652267349987</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I7" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L7" t="n">
-        <v>761.8145120199619</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M7" t="n">
-        <v>761.8145120199619</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="N7" t="n">
         <v>761.8145120199619</v>
@@ -4749,28 +4749,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T7" t="n">
-        <v>1451.303983658873</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U7" t="n">
-        <v>1172.870982911978</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V7" t="n">
-        <v>885.9154747824084</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="W7" t="n">
-        <v>613.8890703687</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="X7" t="n">
-        <v>368.4973157021125</v>
+        <v>1271.132485417198</v>
       </c>
       <c r="Y7" t="n">
-        <v>368.4973157021125</v>
+        <v>1216.160498707152</v>
       </c>
     </row>
     <row r="8">
@@ -4786,7 +4786,7 @@
         <v>462.52534286434</v>
       </c>
       <c r="D8" t="n">
-        <v>462.52534286434</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E8" t="n">
         <v>33.94366860160834</v>
@@ -4804,19 +4804,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K8" t="n">
         <v>453.9965675465116</v>
       </c>
       <c r="L8" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O8" t="n">
         <v>687.9235674375537</v>
@@ -4831,22 +4831,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W8" t="n">
-        <v>1292.327975491451</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="X8" t="n">
-        <v>891.1070171270717</v>
+        <v>1299.393140827418</v>
       </c>
       <c r="Y8" t="n">
         <v>891.1070171270717</v>
@@ -4886,19 +4886,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K9" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L9" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M9" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N9" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O9" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P9" t="n">
         <v>1159.957753041174</v>
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>700.5034523966074</v>
+        <v>1024.341879988165</v>
       </c>
       <c r="C10" t="n">
-        <v>527.9417408798323</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="D10" t="n">
-        <v>362.063748081355</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E10" t="n">
-        <v>362.063748081355</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F10" t="n">
-        <v>362.063748081355</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I10" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L10" t="n">
-        <v>813.4916901053949</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M10" t="n">
-        <v>813.4916901053949</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N10" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O10" t="n">
         <v>1181.483761245743</v>
@@ -4986,28 +4986,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T10" t="n">
-        <v>1451.303983658873</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U10" t="n">
-        <v>1451.303983658873</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V10" t="n">
-        <v>1164.348475529303</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="W10" t="n">
-        <v>892.3220711155946</v>
+        <v>1443.580169393044</v>
       </c>
       <c r="X10" t="n">
-        <v>892.3220711155946</v>
+        <v>1443.580169393044</v>
       </c>
       <c r="Y10" t="n">
-        <v>892.3220711155946</v>
+        <v>1216.160498707152</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1270.883859595509</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C11" t="n">
-        <v>1270.883859595509</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D11" t="n">
-        <v>1270.883859595509</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E11" t="n">
-        <v>842.3021853327778</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F11" t="n">
-        <v>414.4347557419855</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G11" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H11" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I11" t="n">
         <v>33.94366860160834</v>
@@ -5068,25 +5068,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S11" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T11" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U11" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V11" t="n">
-        <v>1697.183430080417</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W11" t="n">
-        <v>1697.183430080417</v>
+        <v>460.2432390865162</v>
       </c>
       <c r="X11" t="n">
-        <v>1697.183430080417</v>
+        <v>460.2432390865162</v>
       </c>
       <c r="Y11" t="n">
-        <v>1697.183430080417</v>
+        <v>460.2432390865162</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>540.1154135929013</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C12" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D12" t="n">
         <v>338.5686635760967</v>
@@ -5108,7 +5108,7 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F12" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G12" t="n">
         <v>75.67932078539587</v>
@@ -5162,10 +5162,10 @@
         <v>942.7725296545636</v>
       </c>
       <c r="X12" t="n">
-        <v>787.9050938934437</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y12" t="n">
-        <v>661.4193146726644</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>210.6507226398521</v>
+        <v>1024.341879988165</v>
       </c>
       <c r="C13" t="n">
-        <v>210.6507226398521</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="D13" t="n">
-        <v>210.6507226398521</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E13" t="n">
-        <v>210.6507226398521</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F13" t="n">
-        <v>33.94366860160834</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G13" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H13" t="n">
         <v>33.94366860160834</v>
@@ -5208,43 +5208,43 @@
         <v>726.9120049407049</v>
       </c>
       <c r="M13" t="n">
-        <v>726.9120049407049</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N13" t="n">
-        <v>1146.964903885608</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O13" t="n">
-        <v>1566.63415311139</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P13" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q13" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R13" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S13" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T13" t="n">
-        <v>1451.303983658873</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U13" t="n">
-        <v>1172.870982911978</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V13" t="n">
-        <v>885.9154747824084</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="W13" t="n">
-        <v>613.8890703687</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="X13" t="n">
-        <v>368.4973157021125</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="Y13" t="n">
-        <v>368.4973157021125</v>
+        <v>1024.341879988165</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>461.8110981924006</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="C14" t="n">
-        <v>461.8110981924006</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="D14" t="n">
-        <v>461.8110981924006</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="E14" t="n">
-        <v>461.8110981924006</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="F14" t="n">
-        <v>33.94366860160834</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="G14" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H14" t="n">
         <v>33.94366860160834</v>
@@ -5281,19 +5281,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K14" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L14" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M14" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N14" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O14" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P14" t="n">
         <v>1107.976466382457</v>
@@ -5305,25 +5305,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S14" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T14" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U14" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V14" t="n">
-        <v>1697.183430080417</v>
+        <v>1250.914606198081</v>
       </c>
       <c r="W14" t="n">
-        <v>1697.183430080417</v>
+        <v>846.059151609114</v>
       </c>
       <c r="X14" t="n">
-        <v>1278.040966659728</v>
+        <v>846.059151609114</v>
       </c>
       <c r="Y14" t="n">
-        <v>869.7548429593813</v>
+        <v>724.4716545351282</v>
       </c>
     </row>
     <row r="15">
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>187.8381257054811</v>
+        <v>439.2128461748023</v>
       </c>
       <c r="C16" t="n">
-        <v>187.8381257054811</v>
+        <v>439.2128461748023</v>
       </c>
       <c r="D16" t="n">
-        <v>187.8381257054811</v>
+        <v>439.2128461748023</v>
       </c>
       <c r="E16" t="n">
-        <v>187.8381257054811</v>
+        <v>439.2128461748023</v>
       </c>
       <c r="F16" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="G16" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H16" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I16" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J16" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K16" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L16" t="n">
-        <v>437.4083829648294</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M16" t="n">
-        <v>857.4612819097326</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="N16" t="n">
-        <v>1277.514180854636</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="O16" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P16" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q16" t="n">
         <v>1697.183430080417</v>
@@ -5475,13 +5475,13 @@
         <v>705.2562847857771</v>
       </c>
       <c r="W16" t="n">
-        <v>433.2298803720686</v>
+        <v>684.6046008413898</v>
       </c>
       <c r="X16" t="n">
-        <v>187.8381257054811</v>
+        <v>439.2128461748023</v>
       </c>
       <c r="Y16" t="n">
-        <v>187.8381257054811</v>
+        <v>439.2128461748023</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>592.5190934918371</v>
+        <v>462.52534286434</v>
       </c>
       <c r="C17" t="n">
         <v>462.52534286434</v>
       </c>
       <c r="D17" t="n">
-        <v>33.94366860160834</v>
+        <v>462.52534286434</v>
       </c>
       <c r="E17" t="n">
         <v>33.94366860160834</v>
@@ -5521,19 +5521,19 @@
         <v>874.0494664914149</v>
       </c>
       <c r="L17" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M17" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N17" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O17" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P17" t="n">
-        <v>1107.976466382457</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="Q17" t="n">
         <v>1528.02936532736</v>
@@ -5542,25 +5542,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S17" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T17" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U17" t="n">
-        <v>1437.961127397434</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V17" t="n">
-        <v>1437.961127397434</v>
+        <v>1250.914606198081</v>
       </c>
       <c r="W17" t="n">
-        <v>1437.961127397434</v>
+        <v>881.6678062850293</v>
       </c>
       <c r="X17" t="n">
-        <v>1018.818663976745</v>
+        <v>462.52534286434</v>
       </c>
       <c r="Y17" t="n">
-        <v>1018.818663976745</v>
+        <v>462.52534286434</v>
       </c>
     </row>
     <row r="18">
@@ -5600,22 +5600,22 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L18" t="n">
-        <v>857.0776321906106</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M18" t="n">
-        <v>857.0776321906106</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N18" t="n">
-        <v>857.0776321906106</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O18" t="n">
-        <v>857.0776321906106</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P18" t="n">
-        <v>1277.130531135514</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q18" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R18" t="n">
         <v>1697.183430080417</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>383.2124341566272</v>
+        <v>542.1199904125018</v>
       </c>
       <c r="C19" t="n">
-        <v>210.6507226398521</v>
+        <v>542.1199904125018</v>
       </c>
       <c r="D19" t="n">
-        <v>210.6507226398521</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="E19" t="n">
-        <v>210.6507226398521</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F19" t="n">
-        <v>33.94366860160834</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G19" t="n">
         <v>33.94366860160834</v>
@@ -5676,49 +5676,49 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K19" t="n">
-        <v>33.94366860160834</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L19" t="n">
-        <v>437.4083829648294</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="M19" t="n">
-        <v>857.4612819097326</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N19" t="n">
-        <v>1277.514180854636</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O19" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P19" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q19" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R19" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S19" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T19" t="n">
-        <v>1697.183430080417</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U19" t="n">
-        <v>1606.824390771372</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V19" t="n">
-        <v>1319.868882641802</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W19" t="n">
-        <v>1047.842478228094</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="X19" t="n">
-        <v>802.450723561506</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="Y19" t="n">
-        <v>575.0310528756143</v>
+        <v>637.0779828018885</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>724.8884439079882</v>
+        <v>1114.499252887282</v>
       </c>
       <c r="C20" t="n">
-        <v>724.8884439079882</v>
+        <v>685.9175786245507</v>
       </c>
       <c r="D20" t="n">
-        <v>724.8884439079882</v>
+        <v>257.3359043618191</v>
       </c>
       <c r="E20" t="n">
-        <v>724.8884439079882</v>
+        <v>257.3359043618191</v>
       </c>
       <c r="F20" t="n">
-        <v>724.8884439079882</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G20" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H20" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I20" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J20" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K20" t="n">
         <v>453.9965675465116</v>
       </c>
       <c r="L20" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M20" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N20" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O20" t="n">
-        <v>1294.102365436318</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P20" t="n">
-        <v>1697.183430080417</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q20" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R20" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S20" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T20" t="n">
-        <v>1613.531556264254</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U20" t="n">
-        <v>1613.531556264254</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V20" t="n">
-        <v>1250.914606198081</v>
+        <v>1114.499252887282</v>
       </c>
       <c r="W20" t="n">
-        <v>846.059151609114</v>
+        <v>1114.499252887282</v>
       </c>
       <c r="X20" t="n">
-        <v>724.8884439079882</v>
+        <v>1114.499252887282</v>
       </c>
       <c r="Y20" t="n">
-        <v>724.8884439079882</v>
+        <v>1114.499252887282</v>
       </c>
     </row>
     <row r="21">
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>33.94366860160834</v>
+        <v>199.8676094163139</v>
       </c>
       <c r="C22" t="n">
-        <v>33.94366860160834</v>
+        <v>199.8676094163139</v>
       </c>
       <c r="D22" t="n">
-        <v>33.94366860160834</v>
+        <v>199.8676094163139</v>
       </c>
       <c r="E22" t="n">
-        <v>33.94366860160834</v>
+        <v>199.8676094163139</v>
       </c>
       <c r="F22" t="n">
         <v>33.94366860160834</v>
@@ -5910,52 +5910,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J22" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K22" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L22" t="n">
-        <v>452.1535503695694</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M22" t="n">
-        <v>872.2064493144727</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="N22" t="n">
-        <v>1277.514180854636</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O22" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P22" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q22" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R22" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S22" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T22" t="n">
-        <v>1451.303983658873</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U22" t="n">
-        <v>1172.870982911978</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V22" t="n">
-        <v>970.6001170867833</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W22" t="n">
-        <v>698.5737126730747</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="X22" t="n">
-        <v>453.1819580064872</v>
+        <v>619.1058988211928</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.7622873205955</v>
+        <v>391.6862281353011</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>931.3608944498341</v>
+        <v>1617.981460104281</v>
       </c>
       <c r="C23" t="n">
-        <v>931.3608944498341</v>
+        <v>1179.838987287704</v>
       </c>
       <c r="D23" t="n">
-        <v>931.3608944498341</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="E23" t="n">
-        <v>931.3608944498341</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F23" t="n">
         <v>743.9292024621484</v>
@@ -5983,10 +5983,10 @@
         <v>342.5313710854123</v>
       </c>
       <c r="H23" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I23" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J23" t="n">
         <v>488.6559039815464</v>
@@ -6007,10 +6007,10 @@
         <v>1293.567921177998</v>
       </c>
       <c r="P23" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q23" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R23" t="n">
         <v>2670.060826431428</v>
@@ -6019,22 +6019,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T23" t="n">
-        <v>2366.341725488304</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U23" t="n">
-        <v>2107.119422805321</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V23" t="n">
-        <v>1744.502472739147</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W23" t="n">
-        <v>1339.647018150181</v>
+        <v>1617.981460104281</v>
       </c>
       <c r="X23" t="n">
-        <v>1339.647018150181</v>
+        <v>1617.981460104281</v>
       </c>
       <c r="Y23" t="n">
-        <v>931.3608944498341</v>
+        <v>1617.981460104281</v>
       </c>
     </row>
     <row r="24">
@@ -6062,28 +6062,28 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H24" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I24" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J24" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K24" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L24" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M24" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N24" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O24" t="n">
-        <v>397.8892067392438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P24" t="n">
         <v>1058.729261281022</v>
@@ -6123,43 +6123,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>903.8972536055599</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C25" t="n">
-        <v>731.3355420887848</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D25" t="n">
-        <v>565.4575492903075</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E25" t="n">
-        <v>395.6995455410447</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F25" t="n">
-        <v>218.9924915028009</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G25" t="n">
-        <v>53.40121652862857</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H25" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I25" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J25" t="n">
-        <v>139.9809016933182</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K25" t="n">
-        <v>414.7393562644535</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L25" t="n">
-        <v>832.9492380324147</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M25" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N25" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O25" t="n">
         <v>2154.361157596754</v>
@@ -6174,25 +6174,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S25" t="n">
-        <v>2651.821657388744</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T25" t="n">
-        <v>2405.942210967199</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U25" t="n">
-        <v>2127.509210220304</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V25" t="n">
-        <v>1840.553702090735</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W25" t="n">
-        <v>1568.527297677026</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X25" t="n">
-        <v>1323.135543010439</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y25" t="n">
-        <v>1095.715872324547</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1140.571781856453</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="C26" t="n">
-        <v>1140.571781856453</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="D26" t="n">
-        <v>1140.571781856453</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="E26" t="n">
-        <v>882.6664774961569</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="F26" t="n">
-        <v>454.7990479053647</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G26" t="n">
-        <v>53.40121652862857</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H26" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I26" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J26" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K26" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L26" t="n">
+        <v>632.7278666362198</v>
+      </c>
+      <c r="M26" t="n">
+        <v>632.7278666362198</v>
+      </c>
+      <c r="N26" t="n">
+        <v>632.7278666362198</v>
+      </c>
+      <c r="O26" t="n">
         <v>1293.567921177998</v>
       </c>
-      <c r="M26" t="n">
-        <v>1293.567921177998</v>
-      </c>
-      <c r="N26" t="n">
-        <v>1293.567921177998</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1954.407975719777</v>
-      </c>
       <c r="P26" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q26" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R26" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S26" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T26" t="n">
-        <v>2586.408952615265</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U26" t="n">
-        <v>2327.186649932282</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V26" t="n">
-        <v>1964.569699866109</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W26" t="n">
-        <v>1559.714245277142</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="X26" t="n">
-        <v>1140.571781856453</v>
+        <v>1409.01188313462</v>
       </c>
       <c r="Y26" t="n">
-        <v>1140.571781856453</v>
+        <v>1000.725759434274</v>
       </c>
     </row>
     <row r="27">
@@ -6299,7 +6299,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H27" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I27" t="n">
         <v>79.46488968908616</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C28" t="n">
-        <v>959.897665623735</v>
+        <v>628.4283978510853</v>
       </c>
       <c r="D28" t="n">
-        <v>794.0196728252577</v>
+        <v>628.4283978510853</v>
       </c>
       <c r="E28" t="n">
-        <v>624.2616690759949</v>
+        <v>458.6703941018225</v>
       </c>
       <c r="F28" t="n">
-        <v>447.554615037751</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G28" t="n">
         <v>281.9633400635787</v>
@@ -6381,7 +6381,7 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I28" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J28" t="n">
         <v>139.9809016933184</v>
@@ -6408,28 +6408,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R28" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S28" t="n">
-        <v>2670.060826431428</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T28" t="n">
-        <v>2424.181380009883</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U28" t="n">
-        <v>2356.071333755254</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V28" t="n">
-        <v>2069.115825625685</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W28" t="n">
-        <v>1797.089421211977</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X28" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y28" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1361.228219012466</v>
+        <v>1762.626050389202</v>
       </c>
       <c r="C29" t="n">
-        <v>923.085746195889</v>
+        <v>1324.483577572625</v>
       </c>
       <c r="D29" t="n">
-        <v>487.1759613703334</v>
+        <v>888.5737927470695</v>
       </c>
       <c r="E29" t="n">
-        <v>53.40121652862857</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="F29" t="n">
-        <v>53.40121652862857</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G29" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H29" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I29" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J29" t="n">
         <v>488.6559039815464</v>
@@ -6481,10 +6481,10 @@
         <v>1293.567921177998</v>
       </c>
       <c r="P29" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q29" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R29" t="n">
         <v>2670.060826431428</v>
@@ -6493,22 +6493,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T29" t="n">
-        <v>2586.408952615265</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U29" t="n">
-        <v>2327.186649932282</v>
+        <v>2125.243000455375</v>
       </c>
       <c r="V29" t="n">
-        <v>2327.186649932282</v>
+        <v>1762.626050389202</v>
       </c>
       <c r="W29" t="n">
-        <v>2195.81391319772</v>
+        <v>1762.626050389202</v>
       </c>
       <c r="X29" t="n">
-        <v>2195.81391319772</v>
+        <v>1762.626050389202</v>
       </c>
       <c r="Y29" t="n">
-        <v>1787.527789497373</v>
+        <v>1762.626050389202</v>
       </c>
     </row>
     <row r="30">
@@ -6536,7 +6536,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H30" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I30" t="n">
         <v>79.46488968908616</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1132.45937714051</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C31" t="n">
-        <v>959.897665623735</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D31" t="n">
-        <v>794.0196728252577</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E31" t="n">
-        <v>624.2616690759949</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F31" t="n">
-        <v>447.554615037751</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G31" t="n">
-        <v>281.9633400635787</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="H31" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I31" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J31" t="n">
         <v>139.9809016933184</v>
@@ -6663,10 +6663,10 @@
         <v>1427.525098017707</v>
       </c>
       <c r="X31" t="n">
-        <v>1427.525098017707</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y31" t="n">
-        <v>1324.277995859497</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>481.2686461194209</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="C32" t="n">
-        <v>481.2686461194209</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="D32" t="n">
-        <v>481.2686461194209</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="E32" t="n">
-        <v>481.2686461194209</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F32" t="n">
-        <v>53.40121652862857</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G32" t="n">
-        <v>53.40121652862857</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H32" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I32" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J32" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K32" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L32" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M32" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N32" t="n">
-        <v>632.7278666362199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O32" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P32" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q32" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R32" t="n">
         <v>2670.060826431428</v>
@@ -6730,22 +6730,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T32" t="n">
-        <v>2366.341725488304</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U32" t="n">
-        <v>2107.119422805321</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V32" t="n">
-        <v>1744.502472739147</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="W32" t="n">
-        <v>1339.647018150181</v>
+        <v>1559.714245277141</v>
       </c>
       <c r="X32" t="n">
-        <v>920.5045547294914</v>
+        <v>1559.714245277141</v>
       </c>
       <c r="Y32" t="n">
-        <v>512.2184310291448</v>
+        <v>1151.428121576795</v>
       </c>
     </row>
     <row r="33">
@@ -6773,7 +6773,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H33" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I33" t="n">
         <v>79.46488968908616</v>
@@ -6834,43 +6834,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1132.45937714051</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C34" t="n">
-        <v>959.897665623735</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D34" t="n">
-        <v>794.0196728252577</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E34" t="n">
-        <v>624.2616690759949</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F34" t="n">
-        <v>447.554615037751</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G34" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H34" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I34" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J34" t="n">
-        <v>139.9809016933188</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K34" t="n">
-        <v>414.7393562644543</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L34" t="n">
-        <v>832.9492380324155</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M34" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N34" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O34" t="n">
         <v>2154.361157596754</v>
@@ -6885,25 +6885,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S34" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T34" t="n">
-        <v>2424.181380009883</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U34" t="n">
-        <v>2145.748379262989</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V34" t="n">
-        <v>2069.115825625685</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W34" t="n">
-        <v>1797.089421211977</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X34" t="n">
-        <v>1551.697666545389</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y34" t="n">
-        <v>1324.277995859497</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1430.619677657207</v>
+        <v>874.8353810953173</v>
       </c>
       <c r="C35" t="n">
-        <v>992.4772048406303</v>
+        <v>874.8353810953173</v>
       </c>
       <c r="D35" t="n">
-        <v>915.4601803339856</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="E35" t="n">
-        <v>481.6854354922808</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="F35" t="n">
-        <v>53.81800590148856</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G35" t="n">
-        <v>53.81800590148856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H35" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I35" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J35" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K35" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L35" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M35" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N35" t="n">
-        <v>632.7278666362199</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O35" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P35" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q35" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R35" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S35" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T35" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U35" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V35" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="W35" t="n">
-        <v>2265.205371842461</v>
+        <v>1702.263968216353</v>
       </c>
       <c r="X35" t="n">
-        <v>2265.205371842461</v>
+        <v>1283.121504795664</v>
       </c>
       <c r="Y35" t="n">
-        <v>1856.919248142115</v>
+        <v>874.8353810953173</v>
       </c>
     </row>
     <row r="36">
@@ -7010,7 +7010,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H36" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I36" t="n">
         <v>79.46488968908616</v>
@@ -7071,43 +7071,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>741.4772326516127</v>
+        <v>922.1364226482438</v>
       </c>
       <c r="C37" t="n">
-        <v>568.9155211348376</v>
+        <v>749.5747111314687</v>
       </c>
       <c r="D37" t="n">
-        <v>403.0375283363603</v>
+        <v>583.6967183329914</v>
       </c>
       <c r="E37" t="n">
-        <v>281.9633400635787</v>
+        <v>413.9387145837287</v>
       </c>
       <c r="F37" t="n">
-        <v>281.9633400635787</v>
+        <v>237.2316605454849</v>
       </c>
       <c r="G37" t="n">
-        <v>281.9633400635787</v>
+        <v>71.64038557131252</v>
       </c>
       <c r="H37" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I37" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J37" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K37" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L37" t="n">
-        <v>832.9492380324151</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M37" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N37" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O37" t="n">
         <v>2154.361157596754</v>
@@ -7119,28 +7119,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R37" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S37" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.522190013252</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U37" t="n">
-        <v>1965.089189266357</v>
+        <v>2145.748379262988</v>
       </c>
       <c r="V37" t="n">
-        <v>1678.133681136788</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W37" t="n">
-        <v>1406.107276723079</v>
+        <v>1586.76646671971</v>
       </c>
       <c r="X37" t="n">
-        <v>1160.715522056492</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y37" t="n">
-        <v>933.2958513705998</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>743.9292024621484</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="C38" t="n">
-        <v>743.9292024621484</v>
+        <v>1972.696050931868</v>
       </c>
       <c r="D38" t="n">
-        <v>743.9292024621484</v>
+        <v>1536.786266106312</v>
       </c>
       <c r="E38" t="n">
-        <v>743.9292024621484</v>
+        <v>1103.011521264607</v>
       </c>
       <c r="F38" t="n">
-        <v>743.9292024621484</v>
+        <v>675.1440916738152</v>
       </c>
       <c r="G38" t="n">
         <v>342.5313710854123</v>
       </c>
       <c r="H38" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I38" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J38" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K38" t="n">
-        <v>632.7278666362199</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L38" t="n">
-        <v>632.7278666362199</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M38" t="n">
-        <v>632.7278666362199</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N38" t="n">
-        <v>632.7278666362199</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O38" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P38" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q38" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R38" t="n">
         <v>2670.060826431428</v>
@@ -7204,22 +7204,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T38" t="n">
-        <v>2449.993599304467</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U38" t="n">
-        <v>2190.771296621484</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V38" t="n">
-        <v>1828.15434655531</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="W38" t="n">
-        <v>1423.298891966344</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="X38" t="n">
-        <v>1152.215326162495</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="Y38" t="n">
-        <v>743.9292024621484</v>
+        <v>2410.838523748444</v>
       </c>
     </row>
     <row r="39">
@@ -7247,7 +7247,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H39" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I39" t="n">
         <v>79.46488968908616</v>
@@ -7308,43 +7308,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C40" t="n">
-        <v>959.897665623735</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D40" t="n">
-        <v>794.0196728252577</v>
+        <v>403.0375283363599</v>
       </c>
       <c r="E40" t="n">
-        <v>624.2616690759949</v>
+        <v>233.2795245870971</v>
       </c>
       <c r="F40" t="n">
-        <v>447.554615037751</v>
+        <v>56.57247054885332</v>
       </c>
       <c r="G40" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H40" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I40" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J40" t="n">
-        <v>139.9809016933188</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K40" t="n">
-        <v>414.7393562644543</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L40" t="n">
-        <v>832.9492380324155</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M40" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N40" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O40" t="n">
         <v>2154.361157596754</v>
@@ -7356,28 +7356,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R40" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S40" t="n">
-        <v>2670.060826431428</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T40" t="n">
-        <v>2424.181380009883</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U40" t="n">
-        <v>2145.748379262989</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V40" t="n">
-        <v>2069.115825625685</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W40" t="n">
-        <v>1797.089421211977</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X40" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y40" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2449.993599304467</v>
+        <v>85.91886054423605</v>
       </c>
       <c r="C41" t="n">
-        <v>2041.481161720201</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="D41" t="n">
-        <v>1605.571376894645</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="E41" t="n">
-        <v>1171.796632052941</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="F41" t="n">
-        <v>743.9292024621484</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G41" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H41" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I41" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J41" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K41" t="n">
-        <v>632.7278666362199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L41" t="n">
-        <v>632.7278666362199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M41" t="n">
-        <v>632.7278666362199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N41" t="n">
-        <v>632.7278666362199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O41" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P41" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q41" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R41" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S41" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T41" t="n">
-        <v>2449.993599304467</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U41" t="n">
-        <v>2449.993599304467</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V41" t="n">
-        <v>2449.993599304467</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W41" t="n">
-        <v>2449.993599304467</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X41" t="n">
-        <v>2449.993599304467</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y41" t="n">
-        <v>2449.993599304467</v>
+        <v>512.2184310291439</v>
       </c>
     </row>
     <row r="42">
@@ -7484,7 +7484,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H42" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I42" t="n">
         <v>79.46488968908616</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1132.45937714051</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C43" t="n">
-        <v>959.897665623735</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D43" t="n">
-        <v>794.0196728252577</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="E43" t="n">
-        <v>624.2616690759949</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F43" t="n">
-        <v>447.554615037751</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G43" t="n">
-        <v>281.9633400635787</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H43" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I43" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J43" t="n">
-        <v>139.9809016933188</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K43" t="n">
-        <v>414.7393562644543</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L43" t="n">
-        <v>832.9492380324155</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M43" t="n">
         <v>1292.433105213328</v>
@@ -7593,28 +7593,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R43" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S43" t="n">
-        <v>2648.6430051368</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T43" t="n">
-        <v>2402.763558715255</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U43" t="n">
-        <v>2124.330557968361</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V43" t="n">
-        <v>2069.115825625685</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W43" t="n">
-        <v>1797.089421211977</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X43" t="n">
-        <v>1551.697666545389</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y43" t="n">
-        <v>1324.277995859497</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1351.369965159541</v>
+        <v>770.3988006762045</v>
       </c>
       <c r="C44" t="n">
-        <v>1351.369965159541</v>
+        <v>770.3988006762045</v>
       </c>
       <c r="D44" t="n">
-        <v>915.4601803339856</v>
+        <v>770.3988006762045</v>
       </c>
       <c r="E44" t="n">
-        <v>481.6854354922808</v>
+        <v>770.3988006762045</v>
       </c>
       <c r="F44" t="n">
-        <v>53.81800590148856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G44" t="n">
-        <v>53.81800590148856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H44" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I44" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J44" t="n">
         <v>488.6559039815464</v>
@@ -7660,40 +7660,40 @@
         <v>488.6559039815464</v>
       </c>
       <c r="N44" t="n">
-        <v>632.7278666362199</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O44" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P44" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q44" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R44" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S44" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T44" t="n">
-        <v>2586.408952615265</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U44" t="n">
-        <v>2327.186649932282</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V44" t="n">
-        <v>2327.186649932282</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W44" t="n">
-        <v>1922.331195343316</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X44" t="n">
-        <v>1503.188731922626</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="Y44" t="n">
-        <v>1351.369965159541</v>
+        <v>1015.012768265996</v>
       </c>
     </row>
     <row r="45">
@@ -7721,7 +7721,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H45" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I45" t="n">
         <v>79.46488968908616</v>
@@ -7730,19 +7730,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K45" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L45" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M45" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N45" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O45" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P45" t="n">
         <v>1058.729261281022</v>
@@ -7782,43 +7782,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>762.8950539462408</v>
+        <v>1049.85056207581</v>
       </c>
       <c r="C46" t="n">
-        <v>590.3333424294657</v>
+        <v>877.2888505590353</v>
       </c>
       <c r="D46" t="n">
-        <v>424.4553496309884</v>
+        <v>711.410857760558</v>
       </c>
       <c r="E46" t="n">
-        <v>254.6973458817257</v>
+        <v>541.6528540112952</v>
       </c>
       <c r="F46" t="n">
-        <v>77.99029184348186</v>
+        <v>364.9457999730514</v>
       </c>
       <c r="G46" t="n">
-        <v>53.40121652862857</v>
+        <v>199.3545249988791</v>
       </c>
       <c r="H46" t="n">
-        <v>53.40121652862857</v>
+        <v>59.45235068925359</v>
       </c>
       <c r="I46" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J46" t="n">
-        <v>139.9809016933182</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K46" t="n">
-        <v>414.7393562644535</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L46" t="n">
-        <v>832.9492380324147</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M46" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N46" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O46" t="n">
         <v>2154.361157596754</v>
@@ -7842,16 +7842,16 @@
         <v>1986.507010560985</v>
       </c>
       <c r="V46" t="n">
-        <v>1699.551502431416</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="W46" t="n">
-        <v>1427.525098017707</v>
+        <v>1714.480606147277</v>
       </c>
       <c r="X46" t="n">
-        <v>1182.13334335112</v>
+        <v>1469.088851480689</v>
       </c>
       <c r="Y46" t="n">
-        <v>954.7136726652279</v>
+        <v>1241.669180794798</v>
       </c>
     </row>
   </sheetData>
@@ -7981,10 +7981,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7993,10 +7993,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8139,22 +8139,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>150.1941962971705</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8218,7 +8218,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8230,7 +8230,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
@@ -8373,19 +8373,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>370.2350542247758</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8452,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>424.2958575201044</v>
@@ -8534,13 +8534,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -8610,22 +8610,22 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O10" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8856,19 +8856,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="N13" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>131.8679565343714</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8941,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P14" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q14" t="n">
         <v>424.2958575201044</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>407.5401155184051</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512944</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9181,10 +9181,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q17" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9248,7 +9248,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L18" t="n">
-        <v>52.98895607821112</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,25 +9324,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>407.5401155184051</v>
+        <v>33.39342414375216</v>
       </c>
       <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="N19" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K20" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9415,16 +9415,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P20" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P20" t="n">
-        <v>407.1525905495951</v>
-      </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>409.401749030468</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L23" t="n">
-        <v>145.5272350047208</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9655,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9731,10 +9731,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>347.9676668794093</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9877,22 +9877,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L26" t="n">
-        <v>145.5272350047208</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>667.5152066078572</v>
-      </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
@@ -10041,7 +10041,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645589</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -10117,7 +10117,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L29" t="n">
-        <v>145.5272350047208</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10129,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
@@ -10351,7 +10351,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10360,13 +10360,13 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>667.5152066078571</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P32" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -10515,7 +10515,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
@@ -10588,22 +10588,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -10752,7 +10752,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645589</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
@@ -10825,7 +10825,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10834,13 +10834,13 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O38" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P38" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -11062,7 +11062,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>145.5272350047206</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11074,10 +11074,10 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>667.5152066078571</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P41" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -11308,13 +11308,13 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>145.5272350047206</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O44" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P44" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11378,22 +11378,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -22546,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -22597,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>44.82809155203009</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>157.2967088436616</v>
       </c>
     </row>
     <row r="3">
@@ -22704,19 +22704,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3.847196642600778</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -22752,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>185.0814790129052</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>9.465190568306582</v>
@@ -22804,7 +22804,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22837,13 +22837,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>240.0544076570428</v>
+        <v>35.47176625354462</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -22944,25 +22944,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>84.9688242018988</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>170.7232071360871</v>
       </c>
     </row>
     <row r="8">
@@ -23026,10 +23026,10 @@
         <v>9.465190568306582</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E8" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
@@ -23071,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -23083,13 +23083,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>17.74229000574729</v>
+        <v>103.9540075040149</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23187,19 +23187,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>65.37298583908208</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>197.0915103857369</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23266,19 +23266,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>21.11029827312677</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>92.53888111447316</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>33.63230540015954</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>21.97089053264202</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>18.17226746074778</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -23506,13 +23506,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -23554,16 +23554,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>283.8316403600971</v>
       </c>
     </row>
     <row r="15">
@@ -23664,16 +23664,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>22.58447096502732</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>248.860973264628</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>305.0672349671888</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>35.25256812915615</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>95.89202006630438</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>186.1932218234704</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23971,25 +23971,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>202.4304418922757</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -24031,10 +24031,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>294.9920381623679</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -24138,7 +24138,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>10.67528209130282</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -24186,10 +24186,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>83.83779588133106</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24208,16 +24208,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>238.0313802270755</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24268,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>275.5510975345598</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24414,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>168.220604856786</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
@@ -24451,19 +24451,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>174.110746076595</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24505,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>58.9177479490852</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24694,7 +24694,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>286.2388530112159</v>
@@ -24733,22 +24733,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>17.94234187355448</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>270.7478906758603</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>114.1599680048245</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>122.9308428424049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>391.396287719432</v>
+        <v>18.61264485655892</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -24928,13 +24928,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0.4126214791313976</v>
@@ -24970,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>208.2197249473431</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>355.3038327157217</v>
+        <v>302.3661916095941</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>48.19697732171633</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25393,19 +25393,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>68.09725968044989</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>146.578308640672</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>160.7958207444081</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>208.2197249473431</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>29.33373487998773</v>
+        <v>401.5685805129595</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>110.034906517485</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>229.4233680290249</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>179.8687468661649</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>253.9026833678889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>81.78272691405263</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>355207.0443943543</v>
+        <v>355207.0443943544</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>355207.0443943542</v>
+        <v>355207.0443943543</v>
       </c>
     </row>
     <row r="5">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>499690.3934525952</v>
+        <v>499690.3934525951</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>499690.3934525952</v>
+        <v>499690.3934525951</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>499690.3934525952</v>
+        <v>499690.3934525951</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>499690.3934525952</v>
+        <v>499690.393452595</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>499690.3934525952</v>
+        <v>499690.3934525951</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>96161.87004965881</v>
+      </c>
+      <c r="C2" t="n">
         <v>96161.8700496588</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
+        <v>96161.8700496588</v>
+      </c>
+      <c r="E2" t="n">
+        <v>96161.87004965878</v>
+      </c>
+      <c r="F2" t="n">
+        <v>96161.8700496588</v>
+      </c>
+      <c r="G2" t="n">
         <v>96161.87004965881</v>
       </c>
-      <c r="D2" t="n">
-        <v>96161.87004965881</v>
-      </c>
-      <c r="E2" t="n">
-        <v>96161.87004965881</v>
-      </c>
-      <c r="F2" t="n">
-        <v>96161.87004965883</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>96161.8700496588</v>
       </c>
-      <c r="H2" t="n">
-        <v>96161.87004965881</v>
-      </c>
       <c r="I2" t="n">
-        <v>135276.4913831621</v>
+        <v>135276.491383162</v>
       </c>
       <c r="J2" t="n">
-        <v>135276.4913831621</v>
+        <v>135276.491383162</v>
       </c>
       <c r="K2" t="n">
         <v>135276.4913831621</v>
@@ -26346,7 +26346,7 @@
         <v>135276.4913831621</v>
       </c>
       <c r="M2" t="n">
-        <v>135276.4913831621</v>
+        <v>135276.491383162</v>
       </c>
       <c r="N2" t="n">
         <v>135276.4913831621</v>
@@ -26355,7 +26355,7 @@
         <v>135276.4913831621</v>
       </c>
       <c r="P2" t="n">
-        <v>135276.4913831621</v>
+        <v>135276.491383162</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>64677.13252876429</v>
+        <v>64677.13252876426</v>
       </c>
       <c r="J3" t="n">
         <v>111014.4653449902</v>
@@ -26423,7 +26423,7 @@
         <v>31028.66177247689</v>
       </c>
       <c r="D4" t="n">
-        <v>31028.6617724769</v>
+        <v>31028.66177247689</v>
       </c>
       <c r="E4" t="n">
         <v>31028.66177247689</v>
@@ -26459,7 +26459,7 @@
         <v>43649.82185483626</v>
       </c>
       <c r="P4" t="n">
-        <v>43649.82185483626</v>
+        <v>43649.82185483625</v>
       </c>
     </row>
     <row r="5">
@@ -26490,28 +26490,28 @@
         <v>25797.18813722234</v>
       </c>
       <c r="I5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="J5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="K5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="L5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="M5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="N5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="O5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="P5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-136482.8805197504</v>
+        <v>-137222.237131666</v>
       </c>
       <c r="C6" t="n">
-        <v>5708.420139959577</v>
+        <v>4969.063528043909</v>
       </c>
       <c r="D6" t="n">
-        <v>5708.420139959577</v>
+        <v>4969.063528043908</v>
       </c>
       <c r="E6" t="n">
-        <v>39336.02013995958</v>
+        <v>38596.66352804389</v>
       </c>
       <c r="F6" t="n">
-        <v>39336.02013995959</v>
+        <v>38596.66352804391</v>
       </c>
       <c r="G6" t="n">
-        <v>39336.02013995956</v>
+        <v>38596.66352804392</v>
       </c>
       <c r="H6" t="n">
-        <v>39336.02013995958</v>
+        <v>38596.66352804391</v>
       </c>
       <c r="I6" t="n">
-        <v>-13635.38756219619</v>
+        <v>-14130.27779077744</v>
       </c>
       <c r="J6" t="n">
-        <v>-59972.72037842209</v>
+        <v>-60467.61060700336</v>
       </c>
       <c r="K6" t="n">
-        <v>51041.74496656813</v>
+        <v>50546.85473798685</v>
       </c>
       <c r="L6" t="n">
-        <v>51041.74496656813</v>
+        <v>50546.85473798685</v>
       </c>
       <c r="M6" t="n">
-        <v>51041.74496656813</v>
+        <v>50546.85473798683</v>
       </c>
       <c r="N6" t="n">
-        <v>51041.74496656809</v>
+        <v>50546.85473798685</v>
       </c>
       <c r="O6" t="n">
-        <v>51041.74496656812</v>
+        <v>50546.85473798685</v>
       </c>
       <c r="P6" t="n">
-        <v>51041.74496656811</v>
+        <v>50546.85473798683</v>
       </c>
     </row>
   </sheetData>
@@ -26810,28 +26810,28 @@
         <v>424.2958575201043</v>
       </c>
       <c r="I4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
     </row>
   </sheetData>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>243.2193490877527</v>
+        <v>243.2193490877526</v>
       </c>
       <c r="J4" t="n">
         <v>424.2958575201043</v>
@@ -34701,10 +34701,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34859,22 +34859,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>150.1941962971705</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34938,7 +34938,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34950,7 +34950,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
@@ -35093,19 +35093,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>370.2350542247758</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -35172,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>424.2958575201044</v>
@@ -35254,13 +35254,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35269,7 +35269,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -35330,22 +35330,22 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O10" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -35576,19 +35576,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="N13" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>131.8679565343714</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -35661,10 +35661,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P14" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q14" t="n">
         <v>424.2958575201044</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>407.5401155184051</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,7 +35889,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -35901,10 +35901,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q17" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697544</v>
@@ -35968,7 +35968,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L18" t="n">
-        <v>52.98895607821112</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35980,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36044,25 +36044,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>407.5401155184051</v>
+        <v>33.39342414375216</v>
       </c>
       <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="N19" t="n">
-        <v>424.2958575201044</v>
-      </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K20" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -36135,16 +36135,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P20" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P20" t="n">
-        <v>407.1525905495951</v>
-      </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>409.401749030468</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,7 +36363,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L23" t="n">
-        <v>145.5272350047208</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -36375,7 +36375,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157523</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36451,10 +36451,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>347.9676668794093</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908046</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
@@ -36536,7 +36536,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,22 +36597,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L26" t="n">
-        <v>145.5272350047208</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>667.5152066078572</v>
-      </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157523</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
@@ -36761,13 +36761,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645589</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
@@ -36837,7 +36837,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L29" t="n">
-        <v>145.5272350047208</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -36849,7 +36849,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
@@ -37071,7 +37071,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -37080,13 +37080,13 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>667.5152066078571</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P32" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157523</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37235,7 +37235,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
@@ -37308,22 +37308,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37472,7 +37472,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645589</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
@@ -37545,7 +37545,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -37554,13 +37554,13 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O38" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P38" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37782,7 +37782,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>145.5272350047206</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -37794,10 +37794,10 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>667.5152066078571</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P41" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37946,13 +37946,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38028,13 +38028,13 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>145.5272350047206</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O44" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P44" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
@@ -38092,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908046</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
         <v>422.4342240080415</v>
@@ -38195,7 +38195,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
